--- a/docs/GestaoProjetos/Previsoes+do+Orcamento.xlsx
+++ b/docs/GestaoProjetos/Previsoes+do+Orcamento.xlsx
@@ -213,7 +213,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="83">
   <si>
     <t>Instruções</t>
   </si>
@@ -343,6 +343,12 @@
     <t>Materiais de Consumo.</t>
   </si>
   <si>
+    <t>Consumo de Agua.</t>
+  </si>
+  <si>
+    <t>Manutenção de Estruturas Fisicas</t>
+  </si>
+  <si>
     <t>Gasto Total</t>
   </si>
   <si>
@@ -468,7 +474,7 @@
     <numFmt numFmtId="164" formatCode="dd/mmm/yyyy"/>
     <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -491,15 +497,6 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="8.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10.0"/>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <sz val="10.0"/>
       <color theme="1"/>
@@ -512,10 +509,17 @@
     </font>
     <font>
       <sz val="12.0"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <b/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -523,8 +527,16 @@
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
+      <b/>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -668,7 +680,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -704,97 +716,90 @@
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="3" fillId="2" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="3" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="2" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="4" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="5" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="10" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="5" fillId="4" fontId="3" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="5" fillId="5" fontId="3" numFmtId="9" xfId="0" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="5" fillId="5" fontId="3" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="4" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="8" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf borderId="5" fillId="3" fontId="6" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="2" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="right" readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="5" fillId="3" fontId="4" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="2" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="4" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="2" fontId="10" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="3" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="5" fillId="4" fontId="11" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="4" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="5" fillId="2" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="10" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="165" xfId="0" applyFont="1" applyNumberFormat="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="2" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="9" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="3" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="4" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="4" fontId="2" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="1" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="5" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="7" fillId="0" fontId="5" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="10" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
-    <xf borderId="11" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="3" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="9" xfId="0" applyBorder="1" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="1" fillId="2" fontId="6" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -860,11 +865,11 @@
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="1451482853"/>
-        <c:axId val="2132361220"/>
+        <c:axId val="728815266"/>
+        <c:axId val="278020693"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1451482853"/>
+        <c:axId val="728815266"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -916,10 +921,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2132361220"/>
+        <c:crossAx val="278020693"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2132361220"/>
+        <c:axId val="278020693"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -983,7 +988,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1451482853"/>
+        <c:crossAx val="728815266"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -1299,7 +1304,7 @@
       <c r="D1" s="4"/>
       <c r="E1" s="5">
         <f>TODAY()</f>
-        <v>44106</v>
+        <v>44121</v>
       </c>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
@@ -29443,74 +29448,74 @@
       </c>
       <c r="B1" s="17"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>0.0</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <v>1.0</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <f t="shared" ref="E2:L2" si="1">D2+1</f>
         <v>2</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="23">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="23">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="23">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>28</v>
       </c>
     </row>
@@ -29518,1370 +29523,1560 @@
     <row r="6" ht="12.75" customHeight="1"/>
     <row r="7" ht="12.75" customHeight="1"/>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" t="s">
+      <c r="A11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29">
+      <c r="B11" s="6"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28">
         <v>0.1</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <f t="shared" ref="F11:L11" si="2">E11</f>
         <v>0.1</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="29">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="29">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="32">
+      <c r="B12" s="6"/>
+      <c r="C12" s="31">
         <v>1500.0</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>1500.0</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <f t="shared" ref="E12:L12" si="3">D12*(1+E11)</f>
         <v>1650</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <f t="shared" si="3"/>
         <v>1815</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <f t="shared" si="3"/>
         <v>1996.5</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="32">
         <f t="shared" si="3"/>
         <v>2196.15</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="32">
         <f t="shared" si="3"/>
         <v>2415.765</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="32">
         <f t="shared" si="3"/>
         <v>2657.3415</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="32">
         <f t="shared" si="3"/>
         <v>2923.07565</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="32">
         <f t="shared" si="3"/>
         <v>3215.383215</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" t="s">
+      <c r="A14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29">
+      <c r="B14" s="6"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28">
         <v>0.1</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <f t="shared" ref="F14:L14" si="4">E14</f>
         <v>0.1</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="32">
+      <c r="B15" s="6"/>
+      <c r="C15" s="31">
         <v>2500.0</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>2500.0</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <f t="shared" ref="E15:L15" si="5">D15*(1+E14)</f>
         <v>2750</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <f t="shared" si="5"/>
         <v>3025</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <f t="shared" si="5"/>
         <v>3327.5</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="32">
         <f t="shared" si="5"/>
         <v>3660.25</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="32">
         <f t="shared" si="5"/>
         <v>4026.275</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="32">
         <f t="shared" si="5"/>
         <v>4428.9025</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="32">
         <f t="shared" si="5"/>
         <v>4871.79275</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="32">
         <f t="shared" si="5"/>
         <v>5358.972025</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" t="s">
+      <c r="A17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29">
+      <c r="B17" s="6"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28">
         <v>0.1</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <f t="shared" ref="F17:L17" si="6">E17</f>
         <v>0.1</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="29">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="29">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="29">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="29">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="29">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="32">
+      <c r="B18" s="6"/>
+      <c r="C18" s="31">
         <v>250.0</v>
       </c>
-      <c r="D18" s="32">
+      <c r="D18" s="31">
         <v>250.0</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <f t="shared" ref="E18:L18" si="7">D18*(1+E17)</f>
         <v>275</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="32">
         <f t="shared" si="7"/>
         <v>302.5</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="32">
         <f t="shared" si="7"/>
         <v>332.75</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="32">
         <f t="shared" si="7"/>
         <v>366.025</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="32">
         <f t="shared" si="7"/>
         <v>402.6275</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="32">
         <f t="shared" si="7"/>
         <v>442.89025</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="32">
         <f t="shared" si="7"/>
         <v>487.179275</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="32">
         <f t="shared" si="7"/>
         <v>535.8972025</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" t="s">
+      <c r="A20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29">
+      <c r="B20" s="6"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28">
         <v>0.1</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <f t="shared" ref="F20:L20" si="8">E20</f>
         <v>0.1</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="29">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="29">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="29">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="29">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="29">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="32">
+      <c r="B21" s="6"/>
+      <c r="C21" s="31">
         <v>200.0</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>200.0</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="32">
         <f t="shared" ref="E21:L21" si="9">D21*(1+E20)</f>
         <v>220</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="32">
         <f t="shared" si="9"/>
         <v>242</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <f t="shared" si="9"/>
         <v>266.2</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="32">
         <f t="shared" si="9"/>
         <v>292.82</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="32">
         <f t="shared" si="9"/>
         <v>322.102</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="32">
         <f t="shared" si="9"/>
         <v>354.3122</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="32">
         <f t="shared" si="9"/>
         <v>389.74342</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="32">
         <f t="shared" si="9"/>
         <v>428.717762</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" t="s">
+      <c r="A23" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29">
+      <c r="B23" s="6"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28">
         <v>0.1</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="29">
         <f t="shared" ref="F23:L23" si="10">E23</f>
         <v>0.1</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="29">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="29">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="29">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="29">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="29">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="36">
+      <c r="B24" s="6"/>
+      <c r="C24" s="35">
         <v>400.0</v>
       </c>
-      <c r="D24" s="36">
+      <c r="D24" s="35">
         <v>400.0</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <f t="shared" ref="E24:L24" si="11">D24*(1+E23)</f>
         <v>440</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="32">
         <f t="shared" si="11"/>
         <v>484</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="32">
         <f t="shared" si="11"/>
         <v>532.4</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="32">
         <f t="shared" si="11"/>
         <v>585.64</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="32">
         <f t="shared" si="11"/>
         <v>644.204</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="32">
         <f t="shared" si="11"/>
         <v>708.6244</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="32">
         <f t="shared" si="11"/>
         <v>779.48684</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="32">
         <f t="shared" si="11"/>
         <v>857.435524</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" t="s">
+      <c r="A26" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29">
+      <c r="B26" s="6"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28">
         <v>0.1</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="29">
         <f t="shared" ref="F26:L26" si="12">E26</f>
         <v>0.1</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="29">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="29">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="29">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="29">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="29">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="29">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="28"/>
-      <c r="C27" s="32">
+      <c r="B27" s="6"/>
+      <c r="C27" s="31">
         <v>1200.0</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="31">
         <v>1200.0</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="32">
         <f t="shared" ref="E27:L27" si="13">D27*(1+E26)</f>
         <v>1320</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="32">
         <f t="shared" si="13"/>
         <v>1452</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="32">
         <f t="shared" si="13"/>
         <v>1597.2</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="32">
         <f t="shared" si="13"/>
         <v>1756.92</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="32">
         <f t="shared" si="13"/>
         <v>1932.612</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="32">
         <f t="shared" si="13"/>
         <v>2125.8732</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="32">
         <f t="shared" si="13"/>
         <v>2338.46052</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="32">
         <f t="shared" si="13"/>
         <v>2572.306572</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" t="s">
+      <c r="A29" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29">
+      <c r="B29" s="6"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28">
         <v>0.1</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="29">
         <f t="shared" ref="F29:L29" si="14">E29</f>
         <v>0.1</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="29">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="29">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="29">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="29">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="29">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="32">
+      <c r="B30" s="6"/>
+      <c r="C30" s="31">
         <v>450.0</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="31">
         <v>450.0</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="32">
         <f t="shared" ref="E30:L30" si="15">D30*(1+E29)</f>
         <v>495</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="32">
         <f t="shared" si="15"/>
         <v>544.5</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="32">
         <f t="shared" si="15"/>
         <v>598.95</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="32">
         <f t="shared" si="15"/>
         <v>658.845</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="32">
         <f t="shared" si="15"/>
         <v>724.7295</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="32">
         <f t="shared" si="15"/>
         <v>797.20245</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="32">
         <f t="shared" si="15"/>
         <v>876.922695</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="32">
         <f t="shared" si="15"/>
         <v>964.6149645</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" t="s">
+      <c r="A32" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29">
+      <c r="B32" s="6"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28">
         <v>0.1</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="29">
         <f t="shared" ref="F32:L32" si="16">E32</f>
         <v>0.1</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="29">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="29">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="29">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="29">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="29">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="29">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="32">
+      <c r="B33" s="6"/>
+      <c r="C33" s="31">
         <v>220.0</v>
       </c>
-      <c r="D33" s="32">
+      <c r="D33" s="31">
         <v>220.0</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="32">
         <f t="shared" ref="E33:L33" si="17">D33*(1+E32)</f>
         <v>242</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="32">
         <f t="shared" si="17"/>
         <v>266.2</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="32">
         <f t="shared" si="17"/>
         <v>292.82</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="32">
         <f t="shared" si="17"/>
         <v>322.102</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="32">
         <f t="shared" si="17"/>
         <v>354.3122</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J33" s="32">
         <f t="shared" si="17"/>
         <v>389.74342</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="32">
         <f t="shared" si="17"/>
         <v>428.717762</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="32">
         <f t="shared" si="17"/>
         <v>471.5895382</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" t="s">
+      <c r="A35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29">
+      <c r="B35" s="6"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28">
         <v>0.1</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="29">
         <f t="shared" ref="F35:L35" si="18">E35</f>
         <v>0.1</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="29">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="29">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="29">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="29">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="29">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="29">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="32">
+      <c r="B36" s="6"/>
+      <c r="C36" s="31">
         <v>223.0</v>
       </c>
-      <c r="D36" s="32">
+      <c r="D36" s="31">
         <v>223.0</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="32">
         <f t="shared" ref="E36:L36" si="19">D36*(1+E35)</f>
         <v>245.3</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="32">
         <f t="shared" si="19"/>
         <v>269.83</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="32">
         <f t="shared" si="19"/>
         <v>296.813</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="32">
         <f t="shared" si="19"/>
         <v>326.4943</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="32">
         <f t="shared" si="19"/>
         <v>359.14373</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="32">
         <f t="shared" si="19"/>
         <v>395.058103</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="32">
         <f t="shared" si="19"/>
         <v>434.5639133</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="32">
         <f t="shared" si="19"/>
         <v>478.0203046</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+    </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="25" t="s">
-        <v>42</v>
+      <c r="A38" s="27" t="s">
+        <v>32</v>
       </c>
       <c r="B38" s="6"/>
-      <c r="C38" s="37">
-        <f t="shared" ref="C38:L38" si="20">(C12+C15+C18+C21+C24+C27+C30+C33+C36)</f>
-        <v>6943</v>
-      </c>
-      <c r="D38" s="37">
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="29">
+        <f t="shared" ref="F38:L38" si="20">E38</f>
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="29">
         <f t="shared" si="20"/>
-        <v>6943</v>
-      </c>
-      <c r="E38" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="29">
         <f t="shared" si="20"/>
-        <v>7637.3</v>
-      </c>
-      <c r="F38" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="I38" s="29">
         <f t="shared" si="20"/>
-        <v>8401.03</v>
-      </c>
-      <c r="G38" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="29">
         <f t="shared" si="20"/>
-        <v>9241.133</v>
-      </c>
-      <c r="H38" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="K38" s="29">
         <f t="shared" si="20"/>
-        <v>10165.2463</v>
-      </c>
-      <c r="I38" s="37">
+        <v>0.1</v>
+      </c>
+      <c r="L38" s="29">
         <f t="shared" si="20"/>
-        <v>11181.77093</v>
-      </c>
-      <c r="J38" s="37">
-        <f t="shared" si="20"/>
-        <v>12299.94802</v>
-      </c>
-      <c r="K38" s="37">
-        <f t="shared" si="20"/>
-        <v>13529.94283</v>
-      </c>
-      <c r="L38" s="37">
-        <f t="shared" si="20"/>
-        <v>14882.93711</v>
-      </c>
-    </row>
-    <row r="39" ht="12.75" customHeight="1"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="36">
+        <v>123.0</v>
+      </c>
+      <c r="D39" s="36">
+        <v>133.0</v>
+      </c>
+      <c r="E39" s="32">
+        <f t="shared" ref="E39:L39" si="21">D39*(1+E38)</f>
+        <v>146.3</v>
+      </c>
+      <c r="F39" s="32">
+        <f t="shared" si="21"/>
+        <v>160.93</v>
+      </c>
+      <c r="G39" s="32">
+        <f t="shared" si="21"/>
+        <v>177.023</v>
+      </c>
+      <c r="H39" s="32">
+        <f t="shared" si="21"/>
+        <v>194.7253</v>
+      </c>
+      <c r="I39" s="32">
+        <f t="shared" si="21"/>
+        <v>214.19783</v>
+      </c>
+      <c r="J39" s="32">
+        <f t="shared" si="21"/>
+        <v>235.617613</v>
+      </c>
+      <c r="K39" s="32">
+        <f t="shared" si="21"/>
+        <v>259.1793743</v>
+      </c>
+      <c r="L39" s="32">
+        <f t="shared" si="21"/>
+        <v>285.0973117</v>
+      </c>
+    </row>
     <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="22" t="s">
+      <c r="A40" s="33" t="s">
         <v>43</v>
       </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
-      <c r="A41" s="38" t="s">
+      <c r="A41" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="29">
+        <f t="shared" ref="F41:L41" si="22">E41</f>
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="29">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="H41" s="29">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="I41" s="29">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="J41" s="29">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="K41" s="29">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="L41" s="29">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="A42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="36">
+        <v>295.0</v>
+      </c>
+      <c r="D42" s="36">
+        <v>295.0</v>
+      </c>
+      <c r="E42" s="32">
+        <f t="shared" ref="E42:L42" si="23">D42*(1+E41)</f>
+        <v>324.5</v>
+      </c>
+      <c r="F42" s="32">
+        <f t="shared" si="23"/>
+        <v>356.95</v>
+      </c>
+      <c r="G42" s="32">
+        <f t="shared" si="23"/>
+        <v>392.645</v>
+      </c>
+      <c r="H42" s="32">
+        <f t="shared" si="23"/>
+        <v>431.9095</v>
+      </c>
+      <c r="I42" s="32">
+        <f t="shared" si="23"/>
+        <v>475.10045</v>
+      </c>
+      <c r="J42" s="32">
+        <f t="shared" si="23"/>
+        <v>522.610495</v>
+      </c>
+      <c r="K42" s="32">
+        <f t="shared" si="23"/>
+        <v>574.8715445</v>
+      </c>
+      <c r="L42" s="32">
+        <f t="shared" si="23"/>
+        <v>632.358699</v>
+      </c>
+    </row>
+    <row r="43" ht="12.75" customHeight="1"/>
+    <row r="44" ht="12.75" customHeight="1"/>
+    <row r="45" ht="12.75" customHeight="1"/>
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1">
+      <c r="A50" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C41" s="39">
+      <c r="B50" s="6"/>
+      <c r="C50" s="37">
+        <f t="shared" ref="C50:L50" si="24">(C12+C15+C18+C21+C24+C27+C30+C33+C36+C39+C42)</f>
+        <v>7361</v>
+      </c>
+      <c r="D50" s="37">
+        <f t="shared" si="24"/>
+        <v>7371</v>
+      </c>
+      <c r="E50" s="37">
+        <f t="shared" si="24"/>
+        <v>8108.1</v>
+      </c>
+      <c r="F50" s="37">
+        <f t="shared" si="24"/>
+        <v>8918.91</v>
+      </c>
+      <c r="G50" s="37">
+        <f t="shared" si="24"/>
+        <v>9810.801</v>
+      </c>
+      <c r="H50" s="37">
+        <f t="shared" si="24"/>
+        <v>10791.8811</v>
+      </c>
+      <c r="I50" s="37">
+        <f t="shared" si="24"/>
+        <v>11871.06921</v>
+      </c>
+      <c r="J50" s="37">
+        <f t="shared" si="24"/>
+        <v>13058.17613</v>
+      </c>
+      <c r="K50" s="37">
+        <f t="shared" si="24"/>
+        <v>14363.99374</v>
+      </c>
+      <c r="L50" s="37">
+        <f t="shared" si="24"/>
+        <v>15800.39312</v>
+      </c>
+    </row>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1">
+      <c r="A52" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="A53" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="40">
         <v>2500.0</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D53" s="40">
         <v>500.0</v>
       </c>
-      <c r="E41" s="39">
+      <c r="E53" s="40">
         <v>500.0</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F53" s="40">
         <v>500.0</v>
       </c>
-      <c r="G41" s="39">
+      <c r="G53" s="40">
         <v>500.0</v>
       </c>
-      <c r="H41" s="23">
+      <c r="H53" s="40">
         <v>0.0</v>
       </c>
-      <c r="I41" s="23">
+      <c r="I53" s="40">
         <v>0.0</v>
       </c>
-      <c r="J41" s="23">
+      <c r="J53" s="40">
         <v>0.0</v>
       </c>
-      <c r="K41" s="23">
+      <c r="K53" s="40">
         <v>0.0</v>
       </c>
-      <c r="L41" s="23">
+      <c r="L53" s="40">
         <v>0.0</v>
       </c>
     </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C42" s="23">
+    <row r="54" ht="12.75" customHeight="1">
+      <c r="A54" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="22">
         <v>0.0</v>
       </c>
-      <c r="D42" s="23">
+      <c r="D54" s="22">
         <v>0.0</v>
       </c>
-      <c r="E42" s="23">
+      <c r="E54" s="22">
         <v>0.0</v>
       </c>
-      <c r="F42" s="23">
+      <c r="F54" s="22">
         <v>0.0</v>
       </c>
-      <c r="G42" s="23">
+      <c r="G54" s="22">
         <v>0.0</v>
       </c>
-      <c r="H42" s="39">
+      <c r="H54" s="22">
         <v>0.0</v>
       </c>
-      <c r="I42" s="39">
+      <c r="I54" s="22">
         <v>0.0</v>
       </c>
-      <c r="J42" s="39">
+      <c r="J54" s="22">
         <v>0.0</v>
       </c>
-      <c r="K42" s="39">
+      <c r="K54" s="22">
         <v>0.0</v>
       </c>
-      <c r="L42" s="39">
+      <c r="L54" s="22">
         <v>0.0</v>
       </c>
     </row>
-    <row r="43" ht="12.75" customHeight="1">
-      <c r="A43" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C43" s="39">
+    <row r="55" ht="12.75" customHeight="1">
+      <c r="A55" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="40">
         <v>500.0</v>
       </c>
-      <c r="D43" s="23">
+      <c r="D55" s="40">
         <v>500.0</v>
       </c>
-      <c r="E43" s="23">
+      <c r="E55" s="40">
         <v>500.0</v>
       </c>
-      <c r="F43" s="23">
+      <c r="F55" s="40">
         <v>0.0</v>
       </c>
-      <c r="G43" s="23">
+      <c r="G55" s="40">
         <v>0.0</v>
       </c>
-      <c r="H43" s="39">
+      <c r="H55" s="40">
         <v>0.0</v>
       </c>
-      <c r="I43" s="39">
+      <c r="I55" s="40">
         <v>0.0</v>
       </c>
-      <c r="J43" s="39">
+      <c r="J55" s="40">
         <v>0.0</v>
       </c>
-      <c r="K43" s="39">
+      <c r="K55" s="40">
         <v>0.0</v>
       </c>
-      <c r="L43" s="23">
+      <c r="L55" s="40">
         <v>0.0</v>
       </c>
     </row>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="40" t="s">
-        <v>47</v>
-      </c>
-      <c r="B44" s="41"/>
-    </row>
-    <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="31"/>
-    </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="42" t="s">
+    <row r="56" ht="12.75" customHeight="1">
+      <c r="A56" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B48" s="6"/>
-      <c r="C48" s="37">
-        <f t="shared" ref="C48:L48" si="21">SUM(C41:C46)</f>
+      <c r="B56" s="42"/>
+    </row>
+    <row r="57" ht="12.75" customHeight="1"/>
+    <row r="58" ht="12.75" customHeight="1">
+      <c r="A58" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" ht="12.75" customHeight="1">
+      <c r="A59" s="30"/>
+    </row>
+    <row r="60" ht="12.75" customHeight="1">
+      <c r="A60" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B60" s="6"/>
+      <c r="C60" s="37">
+        <f t="shared" ref="C60:L60" si="25">SUM(C53:C58)</f>
         <v>3000</v>
       </c>
-      <c r="D48" s="37">
-        <f t="shared" si="21"/>
+      <c r="D60" s="37">
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
-      <c r="E48" s="37">
-        <f t="shared" si="21"/>
+      <c r="E60" s="37">
+        <f t="shared" si="25"/>
         <v>1000</v>
       </c>
-      <c r="F48" s="37">
-        <f t="shared" si="21"/>
+      <c r="F60" s="37">
+        <f t="shared" si="25"/>
         <v>500</v>
       </c>
-      <c r="G48" s="37">
-        <f t="shared" si="21"/>
+      <c r="G60" s="37">
+        <f t="shared" si="25"/>
         <v>500</v>
       </c>
-      <c r="H48" s="37">
-        <f t="shared" si="21"/>
+      <c r="H60" s="37">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="I48" s="37">
-        <f t="shared" si="21"/>
+      <c r="I60" s="37">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="J48" s="37">
-        <f t="shared" si="21"/>
+      <c r="J60" s="37">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="K48" s="37">
-        <f t="shared" si="21"/>
+      <c r="K60" s="37">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L48" s="37">
-        <f t="shared" si="21"/>
+      <c r="L60" s="37">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="31"/>
-    </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B50" s="28"/>
-      <c r="C50" s="37">
-        <f t="shared" ref="C50:L50" si="22">C48+C38</f>
-        <v>9943</v>
-      </c>
-      <c r="D50" s="37">
-        <f t="shared" si="22"/>
-        <v>7943</v>
-      </c>
-      <c r="E50" s="37">
-        <f t="shared" si="22"/>
-        <v>8637.3</v>
-      </c>
-      <c r="F50" s="37">
-        <f t="shared" si="22"/>
-        <v>8901.03</v>
-      </c>
-      <c r="G50" s="37">
-        <f t="shared" si="22"/>
-        <v>9741.133</v>
-      </c>
-      <c r="H50" s="37">
-        <f t="shared" si="22"/>
-        <v>10165.2463</v>
-      </c>
-      <c r="I50" s="37">
-        <f t="shared" si="22"/>
-        <v>11181.77093</v>
-      </c>
-      <c r="J50" s="37">
-        <f t="shared" si="22"/>
-        <v>12299.94802</v>
-      </c>
-      <c r="K50" s="37">
-        <f t="shared" si="22"/>
-        <v>13529.94283</v>
-      </c>
-      <c r="L50" s="37">
-        <f t="shared" si="22"/>
-        <v>14882.93711</v>
-      </c>
-    </row>
-    <row r="51" ht="12.75" customHeight="1">
-      <c r="A51" s="25" t="s">
-        <v>50</v>
-      </c>
-      <c r="B51" s="6"/>
-      <c r="C51" s="37">
-        <f t="shared" ref="C51:C53" si="24">C50</f>
-        <v>9943</v>
-      </c>
-      <c r="D51" s="37">
-        <f t="shared" ref="D51:L51" si="23">C51+D50</f>
-        <v>17886</v>
-      </c>
-      <c r="E51" s="37">
-        <f t="shared" si="23"/>
-        <v>26523.3</v>
-      </c>
-      <c r="F51" s="37">
-        <f t="shared" si="23"/>
-        <v>35424.33</v>
-      </c>
-      <c r="G51" s="37">
-        <f t="shared" si="23"/>
-        <v>45165.463</v>
-      </c>
-      <c r="H51" s="37">
-        <f t="shared" si="23"/>
-        <v>55330.7093</v>
-      </c>
-      <c r="I51" s="37">
-        <f t="shared" si="23"/>
-        <v>66512.48023</v>
-      </c>
-      <c r="J51" s="37">
-        <f t="shared" si="23"/>
-        <v>78812.42825</v>
-      </c>
-      <c r="K51" s="37">
-        <f t="shared" si="23"/>
-        <v>92342.37108</v>
-      </c>
-      <c r="L51" s="37">
-        <f t="shared" si="23"/>
-        <v>107225.3082</v>
-      </c>
-    </row>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="42" t="s">
+    <row r="61" ht="12.75" customHeight="1">
+      <c r="A61" s="39"/>
+    </row>
+    <row r="62" ht="12.75" customHeight="1">
+      <c r="A62" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C52" s="37">
-        <f t="shared" si="24"/>
-        <v>9943</v>
-      </c>
-      <c r="D52" s="37">
-        <f>PV(Param!$C$3,D2,0,-D50)</f>
-        <v>7493.396226</v>
-      </c>
-      <c r="E52" s="37">
-        <f>PV(Param!$C$3,E2,0,-E50)</f>
-        <v>7687.166251</v>
-      </c>
-      <c r="F52" s="37">
-        <f>PV(Param!$C$3,F2,0,-F50)</f>
-        <v>7473.476427</v>
-      </c>
-      <c r="G52" s="37">
-        <f>PV(Param!$C$3,G2,0,-G50)</f>
-        <v>7715.889722</v>
-      </c>
-      <c r="H52" s="37">
-        <f>PV(Param!$C$3,H2,0,-H50)</f>
-        <v>7596.063377</v>
-      </c>
-      <c r="I52" s="37">
-        <f>PV(Param!$C$3,I2,0,-I50)</f>
-        <v>7882.707278</v>
-      </c>
-      <c r="J52" s="37">
-        <f>PV(Param!$C$3,J2,0,-J50)</f>
-        <v>8180.16793</v>
-      </c>
-      <c r="K52" s="37">
-        <f>PV(Param!$C$3,K2,0,-K50)</f>
-        <v>8488.853512</v>
-      </c>
-      <c r="L52" s="37">
-        <f>PV(Param!$C$3,L2,0,-L50)</f>
-        <v>8809.187607</v>
-      </c>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="42" t="s">
+      <c r="B62" s="44"/>
+      <c r="C62" s="37">
+        <f t="shared" ref="C62:L62" si="26">C60+C50</f>
+        <v>10361</v>
+      </c>
+      <c r="D62" s="37">
+        <f t="shared" si="26"/>
+        <v>8371</v>
+      </c>
+      <c r="E62" s="37">
+        <f t="shared" si="26"/>
+        <v>9108.1</v>
+      </c>
+      <c r="F62" s="37">
+        <f t="shared" si="26"/>
+        <v>9418.91</v>
+      </c>
+      <c r="G62" s="37">
+        <f t="shared" si="26"/>
+        <v>10310.801</v>
+      </c>
+      <c r="H62" s="37">
+        <f t="shared" si="26"/>
+        <v>10791.8811</v>
+      </c>
+      <c r="I62" s="37">
+        <f t="shared" si="26"/>
+        <v>11871.06921</v>
+      </c>
+      <c r="J62" s="37">
+        <f t="shared" si="26"/>
+        <v>13058.17613</v>
+      </c>
+      <c r="K62" s="37">
+        <f t="shared" si="26"/>
+        <v>14363.99374</v>
+      </c>
+      <c r="L62" s="37">
+        <f t="shared" si="26"/>
+        <v>15800.39312</v>
+      </c>
+    </row>
+    <row r="63" ht="12.75" customHeight="1">
+      <c r="A63" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C53" s="37">
-        <f t="shared" si="24"/>
-        <v>9943</v>
-      </c>
-      <c r="D53" s="37">
-        <f t="shared" ref="D53:L53" si="25">C53+D52</f>
-        <v>17436.39623</v>
-      </c>
-      <c r="E53" s="37">
-        <f t="shared" si="25"/>
-        <v>25123.56248</v>
-      </c>
-      <c r="F53" s="37">
-        <f t="shared" si="25"/>
-        <v>32597.0389</v>
-      </c>
-      <c r="G53" s="37">
-        <f t="shared" si="25"/>
-        <v>40312.92863</v>
-      </c>
-      <c r="H53" s="37">
-        <f t="shared" si="25"/>
-        <v>47908.992</v>
-      </c>
-      <c r="I53" s="37">
-        <f t="shared" si="25"/>
-        <v>55791.69928</v>
-      </c>
-      <c r="J53" s="37">
-        <f t="shared" si="25"/>
-        <v>63971.86721</v>
-      </c>
-      <c r="K53" s="37">
-        <f t="shared" si="25"/>
-        <v>72460.72072</v>
-      </c>
-      <c r="L53" s="37">
-        <f t="shared" si="25"/>
-        <v>81269.90833</v>
-      </c>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="D54" s="43"/>
-      <c r="E54" s="43"/>
-      <c r="F54" s="43"/>
-      <c r="G54" s="43"/>
-      <c r="H54" s="43"/>
-    </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="44" t="s">
+      <c r="B63" s="6"/>
+      <c r="C63" s="37">
+        <f t="shared" ref="C63:C65" si="28">C62</f>
+        <v>10361</v>
+      </c>
+      <c r="D63" s="37">
+        <f t="shared" ref="D63:L63" si="27">C63+D62</f>
+        <v>18732</v>
+      </c>
+      <c r="E63" s="37">
+        <f t="shared" si="27"/>
+        <v>27840.1</v>
+      </c>
+      <c r="F63" s="37">
+        <f t="shared" si="27"/>
+        <v>37259.01</v>
+      </c>
+      <c r="G63" s="37">
+        <f t="shared" si="27"/>
+        <v>47569.811</v>
+      </c>
+      <c r="H63" s="37">
+        <f t="shared" si="27"/>
+        <v>58361.6921</v>
+      </c>
+      <c r="I63" s="37">
+        <f t="shared" si="27"/>
+        <v>70232.76131</v>
+      </c>
+      <c r="J63" s="37">
+        <f t="shared" si="27"/>
+        <v>83290.93744</v>
+      </c>
+      <c r="K63" s="37">
+        <f t="shared" si="27"/>
+        <v>97654.93119</v>
+      </c>
+      <c r="L63" s="37">
+        <f t="shared" si="27"/>
+        <v>113455.3243</v>
+      </c>
+    </row>
+    <row r="64" ht="12.75" customHeight="1">
+      <c r="A64" s="43" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="45"/>
-      <c r="B56" s="46"/>
-      <c r="C56" s="46"/>
-    </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="45" t="s">
+      <c r="C64" s="37">
+        <f t="shared" si="28"/>
+        <v>10361</v>
+      </c>
+      <c r="D64" s="37">
+        <f>PV(Param!$C$3,D2,0,-D62)</f>
+        <v>7897.169811</v>
+      </c>
+      <c r="E64" s="37">
+        <f>PV(Param!$C$3,E2,0,-E62)</f>
+        <v>8106.176575</v>
+      </c>
+      <c r="F64" s="37">
+        <f>PV(Param!$C$3,F2,0,-F62)</f>
+        <v>7908.298461</v>
+      </c>
+      <c r="G64" s="37">
+        <f>PV(Param!$C$3,G2,0,-G62)</f>
+        <v>8167.120135</v>
+      </c>
+      <c r="H64" s="37">
+        <f>PV(Param!$C$3,H2,0,-H62)</f>
+        <v>8064.321353</v>
+      </c>
+      <c r="I64" s="37">
+        <f>PV(Param!$C$3,I2,0,-I62)</f>
+        <v>8368.635366</v>
+      </c>
+      <c r="J64" s="37">
+        <f>PV(Param!$C$3,J2,0,-J62)</f>
+        <v>8684.432927</v>
+      </c>
+      <c r="K64" s="37">
+        <f>PV(Param!$C$3,K2,0,-K62)</f>
+        <v>9012.147377</v>
+      </c>
+      <c r="L64" s="37">
+        <f>PV(Param!$C$3,L2,0,-L62)</f>
+        <v>9352.22841</v>
+      </c>
+    </row>
+    <row r="65" ht="12.75" customHeight="1">
+      <c r="A65" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="B57" s="47"/>
-      <c r="C57" s="48">
-        <f t="array" ref="C57">NPV(Param!C3,D50:L50)+C50</f>
-        <v>81269.90833</v>
-      </c>
-    </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="45" t="s">
+      <c r="C65" s="37">
+        <f t="shared" si="28"/>
+        <v>10361</v>
+      </c>
+      <c r="D65" s="37">
+        <f t="shared" ref="D65:L65" si="29">C65+D64</f>
+        <v>18258.16981</v>
+      </c>
+      <c r="E65" s="37">
+        <f t="shared" si="29"/>
+        <v>26364.34639</v>
+      </c>
+      <c r="F65" s="37">
+        <f t="shared" si="29"/>
+        <v>34272.64485</v>
+      </c>
+      <c r="G65" s="37">
+        <f t="shared" si="29"/>
+        <v>42439.76498</v>
+      </c>
+      <c r="H65" s="37">
+        <f t="shared" si="29"/>
+        <v>50504.08634</v>
+      </c>
+      <c r="I65" s="37">
+        <f t="shared" si="29"/>
+        <v>58872.7217</v>
+      </c>
+      <c r="J65" s="37">
+        <f t="shared" si="29"/>
+        <v>67557.15463</v>
+      </c>
+      <c r="K65" s="37">
+        <f t="shared" si="29"/>
+        <v>76569.30201</v>
+      </c>
+      <c r="L65" s="37">
+        <f t="shared" si="29"/>
+        <v>85921.53042</v>
+      </c>
+    </row>
+    <row r="66" ht="12.75" customHeight="1">
+      <c r="D66" s="45"/>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+      <c r="G66" s="45"/>
+      <c r="H66" s="45"/>
+    </row>
+    <row r="67" ht="12.75" customHeight="1">
+      <c r="A67" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C58" s="49">
-        <f>COUNTIF(C51:L51,"&lt;=0")</f>
+    </row>
+    <row r="68" ht="12.75" customHeight="1">
+      <c r="A68" s="46"/>
+      <c r="B68" s="47"/>
+      <c r="C68" s="47"/>
+    </row>
+    <row r="69" ht="12.75" customHeight="1">
+      <c r="A69" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B69" s="48"/>
+      <c r="C69" s="48">
+        <f t="array" ref="C69">NPV(Param!C3,D62:L62)+C62</f>
+        <v>85921.53042</v>
+      </c>
+    </row>
+    <row r="70" ht="12.75" customHeight="1">
+      <c r="A70" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C70" s="34">
+        <f>COUNTIF(C63:L63,"&lt;=0")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" s="50"/>
-      <c r="C59" s="49">
-        <f>COUNTIF(C53:L53,"&lt;=0")</f>
+    <row r="71" ht="12.75" customHeight="1">
+      <c r="A71" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="49"/>
+      <c r="C71" s="34">
+        <f>COUNTIF(C65:L65,"&lt;=0")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="A60" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="B60" s="52"/>
-      <c r="C60" s="53">
-        <f>SUM(D50:L50)/-C50</f>
-        <v>-9.783999616</v>
-      </c>
-    </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="45" t="s">
-        <v>58</v>
-      </c>
-      <c r="C61" s="53">
-        <f>SUM(D52:L52)/-C52</f>
-        <v>-7.17358024</v>
-      </c>
-    </row>
-    <row r="62" ht="12.75" customHeight="1"/>
-    <row r="63" ht="12.75" customHeight="1"/>
-    <row r="64" ht="12.75" customHeight="1"/>
-    <row r="65" ht="12.75" customHeight="1"/>
-    <row r="66" ht="12.75" customHeight="1"/>
-    <row r="67" ht="12.75" customHeight="1"/>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
+    <row r="72" ht="12.75" customHeight="1">
+      <c r="A72" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B72" s="47"/>
+      <c r="C72" s="50">
+        <f>SUM(D62:L62)/-C62</f>
+        <v>-9.950229158</v>
+      </c>
+    </row>
+    <row r="73" ht="12.75" customHeight="1">
+      <c r="A73" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C73" s="50">
+        <f>SUM(D64:L64)/-C64</f>
+        <v>-7.292783555</v>
+      </c>
+    </row>
     <row r="74" ht="12.75" customHeight="1"/>
     <row r="75" ht="12.75" customHeight="1"/>
     <row r="76" ht="12.75" customHeight="1"/>
@@ -31845,73 +32040,73 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="21"/>
+      <c r="B1" s="20"/>
       <c r="C1" s="18"/>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="21"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="24">
+      <c r="C2" s="23">
         <v>0.0</v>
       </c>
-      <c r="D2" s="24">
+      <c r="D2" s="23">
         <v>1.0</v>
       </c>
-      <c r="E2" s="24">
+      <c r="E2" s="23">
         <f t="shared" ref="E2:L2" si="1">D2+1</f>
         <v>2</v>
       </c>
-      <c r="F2" s="24">
+      <c r="F2" s="23">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="23">
         <f t="shared" si="1"/>
         <v>4</v>
       </c>
-      <c r="H2" s="24">
+      <c r="H2" s="23">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="I2" s="24">
+      <c r="I2" s="23">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="J2" s="24">
+      <c r="J2" s="23">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="K2" s="24">
+      <c r="K2" s="23">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="L2" s="24">
+      <c r="L2" s="23">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="21" t="s">
         <v>12</v>
       </c>
     </row>
@@ -31919,1375 +32114,1565 @@
     <row r="6" ht="12.75" customHeight="1"/>
     <row r="7" ht="12.75" customHeight="1"/>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="25"/>
+      <c r="C8" s="24"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="22" t="s">
+      <c r="A9" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C9" s="6"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="25"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="26" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" t="s">
+      <c r="A11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="28"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29">
+      <c r="B11" s="6"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28">
         <v>0.1</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="29">
         <f t="shared" ref="F11:L11" si="2">E11</f>
         <v>0.1</v>
       </c>
-      <c r="G11" s="30">
+      <c r="G11" s="29">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="H11" s="30">
+      <c r="H11" s="29">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="I11" s="30">
+      <c r="I11" s="29">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="J11" s="30">
+      <c r="J11" s="29">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="K11" s="30">
+      <c r="K11" s="29">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
-      <c r="L11" s="30">
+      <c r="L11" s="29">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="28"/>
-      <c r="C12" s="32">
+      <c r="B12" s="6"/>
+      <c r="C12" s="31">
         <v>1000.0</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12" s="31">
         <v>1000.0</v>
       </c>
-      <c r="E12" s="33">
+      <c r="E12" s="32">
         <f t="shared" ref="E12:L12" si="3">D12*(1+E11)</f>
         <v>1100</v>
       </c>
-      <c r="F12" s="33">
+      <c r="F12" s="32">
         <f t="shared" si="3"/>
         <v>1210</v>
       </c>
-      <c r="G12" s="33">
+      <c r="G12" s="32">
         <f t="shared" si="3"/>
         <v>1331</v>
       </c>
-      <c r="H12" s="33">
+      <c r="H12" s="32">
         <f t="shared" si="3"/>
         <v>1464.1</v>
       </c>
-      <c r="I12" s="33">
+      <c r="I12" s="32">
         <f t="shared" si="3"/>
         <v>1610.51</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="32">
         <f t="shared" si="3"/>
         <v>1771.561</v>
       </c>
-      <c r="K12" s="33">
+      <c r="K12" s="32">
         <f t="shared" si="3"/>
         <v>1948.7171</v>
       </c>
-      <c r="L12" s="33">
+      <c r="L12" s="32">
         <f t="shared" si="3"/>
         <v>2143.58881</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="34" t="s">
+      <c r="A13" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="35"/>
-      <c r="K13" s="35"/>
-      <c r="L13" s="35"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="34"/>
+      <c r="L13" s="34"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" t="s">
+      <c r="A14" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="28"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29">
+      <c r="B14" s="6"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28">
         <v>0.1</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="29">
         <f t="shared" ref="F14:L14" si="4">E14</f>
         <v>0.1</v>
       </c>
-      <c r="G14" s="30">
+      <c r="G14" s="29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="I14" s="30">
+      <c r="I14" s="29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="J14" s="30">
+      <c r="J14" s="29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="K14" s="30">
+      <c r="K14" s="29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
-      <c r="L14" s="30">
+      <c r="L14" s="29">
         <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="28"/>
-      <c r="C15" s="32">
+      <c r="B15" s="6"/>
+      <c r="C15" s="31">
         <v>1500.0</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15" s="31">
         <v>1500.0</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <f t="shared" ref="E15:L15" si="5">D15*(1+E14)</f>
         <v>1650</v>
       </c>
-      <c r="F15" s="33">
+      <c r="F15" s="32">
         <f t="shared" si="5"/>
         <v>1815</v>
       </c>
-      <c r="G15" s="33">
+      <c r="G15" s="32">
         <f t="shared" si="5"/>
         <v>1996.5</v>
       </c>
-      <c r="H15" s="33">
+      <c r="H15" s="32">
         <f t="shared" si="5"/>
         <v>2196.15</v>
       </c>
-      <c r="I15" s="33">
+      <c r="I15" s="32">
         <f t="shared" si="5"/>
         <v>2415.765</v>
       </c>
-      <c r="J15" s="33">
+      <c r="J15" s="32">
         <f t="shared" si="5"/>
         <v>2657.3415</v>
       </c>
-      <c r="K15" s="33">
+      <c r="K15" s="32">
         <f t="shared" si="5"/>
         <v>2923.07565</v>
       </c>
-      <c r="L15" s="33">
+      <c r="L15" s="32">
         <f t="shared" si="5"/>
         <v>3215.383215</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="33" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" t="s">
+      <c r="A17" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29">
+      <c r="B17" s="6"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28">
         <v>0.1</v>
       </c>
-      <c r="F17" s="30">
+      <c r="F17" s="29">
         <f t="shared" ref="F17:L17" si="6">E17</f>
         <v>0.1</v>
       </c>
-      <c r="G17" s="30">
+      <c r="G17" s="29">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="H17" s="30">
+      <c r="H17" s="29">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="I17" s="30">
+      <c r="I17" s="29">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="J17" s="30">
+      <c r="J17" s="29">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="K17" s="30">
+      <c r="K17" s="29">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
-      <c r="L17" s="30">
+      <c r="L17" s="29">
         <f t="shared" si="6"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="36">
+      <c r="B18" s="6"/>
+      <c r="C18" s="35">
         <v>200.0</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="35">
         <v>200.0</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <f t="shared" ref="E18:L18" si="7">D18*(1+E17)</f>
         <v>220</v>
       </c>
-      <c r="F18" s="33">
+      <c r="F18" s="32">
         <f t="shared" si="7"/>
         <v>242</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="32">
         <f t="shared" si="7"/>
         <v>266.2</v>
       </c>
-      <c r="H18" s="33">
+      <c r="H18" s="32">
         <f t="shared" si="7"/>
         <v>292.82</v>
       </c>
-      <c r="I18" s="33">
+      <c r="I18" s="32">
         <f t="shared" si="7"/>
         <v>322.102</v>
       </c>
-      <c r="J18" s="33">
+      <c r="J18" s="32">
         <f t="shared" si="7"/>
         <v>354.3122</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="32">
         <f t="shared" si="7"/>
         <v>389.74342</v>
       </c>
-      <c r="L18" s="33">
+      <c r="L18" s="32">
         <f t="shared" si="7"/>
         <v>428.717762</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="34" t="s">
+      <c r="A19" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
     </row>
     <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" t="s">
+      <c r="A20" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="28"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29">
+      <c r="B20" s="6"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28">
         <v>0.1</v>
       </c>
-      <c r="F20" s="30">
+      <c r="F20" s="29">
         <f t="shared" ref="F20:L20" si="8">E20</f>
         <v>0.1</v>
       </c>
-      <c r="G20" s="30">
+      <c r="G20" s="29">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="H20" s="30">
+      <c r="H20" s="29">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="I20" s="30">
+      <c r="I20" s="29">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="J20" s="30">
+      <c r="J20" s="29">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="K20" s="30">
+      <c r="K20" s="29">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
-      <c r="L20" s="30">
+      <c r="L20" s="29">
         <f t="shared" si="8"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="28"/>
-      <c r="C21" s="32">
+      <c r="B21" s="6"/>
+      <c r="C21" s="31">
         <v>115.0</v>
       </c>
-      <c r="D21" s="32">
+      <c r="D21" s="31">
         <v>115.0</v>
       </c>
-      <c r="E21" s="33">
+      <c r="E21" s="32">
         <f t="shared" ref="E21:L21" si="9">D21*(1+E20)</f>
         <v>126.5</v>
       </c>
-      <c r="F21" s="33">
+      <c r="F21" s="32">
         <f t="shared" si="9"/>
         <v>139.15</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G21" s="32">
         <f t="shared" si="9"/>
         <v>153.065</v>
       </c>
-      <c r="H21" s="33">
+      <c r="H21" s="32">
         <f t="shared" si="9"/>
         <v>168.3715</v>
       </c>
-      <c r="I21" s="33">
+      <c r="I21" s="32">
         <f t="shared" si="9"/>
         <v>185.20865</v>
       </c>
-      <c r="J21" s="33">
+      <c r="J21" s="32">
         <f t="shared" si="9"/>
         <v>203.729515</v>
       </c>
-      <c r="K21" s="33">
+      <c r="K21" s="32">
         <f t="shared" si="9"/>
         <v>224.1024665</v>
       </c>
-      <c r="L21" s="33">
+      <c r="L21" s="32">
         <f t="shared" si="9"/>
         <v>246.5127132</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="35"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" t="s">
+      <c r="A23" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="28"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29">
+      <c r="B23" s="6"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28">
         <v>0.1</v>
       </c>
-      <c r="F23" s="30">
+      <c r="F23" s="29">
         <f t="shared" ref="F23:L23" si="10">E23</f>
         <v>0.1</v>
       </c>
-      <c r="G23" s="30">
+      <c r="G23" s="29">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="H23" s="30">
+      <c r="H23" s="29">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="I23" s="30">
+      <c r="I23" s="29">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="J23" s="30">
+      <c r="J23" s="29">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="K23" s="30">
+      <c r="K23" s="29">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
-      <c r="L23" s="30">
+      <c r="L23" s="29">
         <f t="shared" si="10"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="32">
+      <c r="B24" s="6"/>
+      <c r="C24" s="31">
         <v>500.0</v>
       </c>
-      <c r="D24" s="32">
+      <c r="D24" s="31">
         <v>500.0</v>
       </c>
-      <c r="E24" s="33">
+      <c r="E24" s="32">
         <f t="shared" ref="E24:L24" si="11">D24*(1+E23)</f>
         <v>550</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="32">
         <f t="shared" si="11"/>
         <v>605</v>
       </c>
-      <c r="G24" s="33">
+      <c r="G24" s="32">
         <f t="shared" si="11"/>
         <v>665.5</v>
       </c>
-      <c r="H24" s="33">
+      <c r="H24" s="32">
         <f t="shared" si="11"/>
         <v>732.05</v>
       </c>
-      <c r="I24" s="33">
+      <c r="I24" s="32">
         <f t="shared" si="11"/>
         <v>805.255</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="32">
         <f t="shared" si="11"/>
         <v>885.7805</v>
       </c>
-      <c r="K24" s="33">
+      <c r="K24" s="32">
         <f t="shared" si="11"/>
         <v>974.35855</v>
       </c>
-      <c r="L24" s="33">
+      <c r="L24" s="32">
         <f t="shared" si="11"/>
         <v>1071.794405</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="34" t="s">
+      <c r="A25" s="33" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="54" t="s">
+      <c r="A26" s="27" t="s">
         <v>32</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55">
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28">
         <v>0.1</v>
       </c>
-      <c r="F26" s="30">
+      <c r="F26" s="29">
         <f t="shared" ref="F26:L26" si="12">E26</f>
         <v>0.1</v>
       </c>
-      <c r="G26" s="30">
+      <c r="G26" s="29">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="H26" s="30">
+      <c r="H26" s="29">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="I26" s="30">
+      <c r="I26" s="29">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="J26" s="30">
+      <c r="J26" s="29">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="K26" s="30">
+      <c r="K26" s="29">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
-      <c r="L26" s="30">
+      <c r="L26" s="29">
         <f t="shared" si="12"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="38" t="s">
+      <c r="A27" s="30" t="s">
         <v>33</v>
       </c>
       <c r="B27" s="6"/>
-      <c r="C27" s="32">
+      <c r="C27" s="31">
         <v>950.0</v>
       </c>
-      <c r="D27" s="32">
+      <c r="D27" s="31">
         <v>950.0</v>
       </c>
-      <c r="E27" s="33">
+      <c r="E27" s="32">
         <f t="shared" ref="E27:L27" si="13">D27*(1+E26)</f>
         <v>1045</v>
       </c>
-      <c r="F27" s="33">
+      <c r="F27" s="32">
         <f t="shared" si="13"/>
         <v>1149.5</v>
       </c>
-      <c r="G27" s="33">
+      <c r="G27" s="32">
         <f t="shared" si="13"/>
         <v>1264.45</v>
       </c>
-      <c r="H27" s="33">
+      <c r="H27" s="32">
         <f t="shared" si="13"/>
         <v>1390.895</v>
       </c>
-      <c r="I27" s="33">
+      <c r="I27" s="32">
         <f t="shared" si="13"/>
         <v>1529.9845</v>
       </c>
-      <c r="J27" s="33">
+      <c r="J27" s="32">
         <f t="shared" si="13"/>
         <v>1682.98295</v>
       </c>
-      <c r="K27" s="33">
+      <c r="K27" s="32">
         <f t="shared" si="13"/>
         <v>1851.281245</v>
       </c>
-      <c r="L27" s="33">
+      <c r="L27" s="32">
         <f t="shared" si="13"/>
         <v>2036.40937</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="34" t="s">
+      <c r="A28" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="35"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="54" t="s">
+      <c r="A29" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="28"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29">
+      <c r="B29" s="6"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28">
         <v>0.1</v>
       </c>
-      <c r="F29" s="30">
+      <c r="F29" s="29">
         <f t="shared" ref="F29:L29" si="14">E29</f>
         <v>0.1</v>
       </c>
-      <c r="G29" s="30">
+      <c r="G29" s="29">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="H29" s="30">
+      <c r="H29" s="29">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="I29" s="30">
+      <c r="I29" s="29">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="J29" s="30">
+      <c r="J29" s="29">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="K29" s="30">
+      <c r="K29" s="29">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
-      <c r="L29" s="30">
+      <c r="L29" s="29">
         <f t="shared" si="14"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="28"/>
-      <c r="C30" s="32">
+      <c r="B30" s="6"/>
+      <c r="C30" s="31">
         <v>350.0</v>
       </c>
-      <c r="D30" s="32">
+      <c r="D30" s="31">
         <v>350.0</v>
       </c>
-      <c r="E30" s="33">
+      <c r="E30" s="32">
         <f t="shared" ref="E30:L30" si="15">D30*(1+E29)</f>
         <v>385</v>
       </c>
-      <c r="F30" s="33">
+      <c r="F30" s="32">
         <f t="shared" si="15"/>
         <v>423.5</v>
       </c>
-      <c r="G30" s="33">
+      <c r="G30" s="32">
         <f t="shared" si="15"/>
         <v>465.85</v>
       </c>
-      <c r="H30" s="33">
+      <c r="H30" s="32">
         <f t="shared" si="15"/>
         <v>512.435</v>
       </c>
-      <c r="I30" s="33">
+      <c r="I30" s="32">
         <f t="shared" si="15"/>
         <v>563.6785</v>
       </c>
-      <c r="J30" s="33">
+      <c r="J30" s="32">
         <f t="shared" si="15"/>
         <v>620.04635</v>
       </c>
-      <c r="K30" s="33">
+      <c r="K30" s="32">
         <f t="shared" si="15"/>
         <v>682.050985</v>
       </c>
-      <c r="L30" s="33">
+      <c r="L30" s="32">
         <f t="shared" si="15"/>
         <v>750.2560835</v>
       </c>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="35"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="54" t="s">
+      <c r="A32" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B32" s="28"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
-      <c r="E32" s="29">
+      <c r="B32" s="6"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
+      <c r="E32" s="28">
         <v>0.1</v>
       </c>
-      <c r="F32" s="30">
+      <c r="F32" s="29">
         <f t="shared" ref="F32:L32" si="16">E32</f>
         <v>0.1</v>
       </c>
-      <c r="G32" s="30">
+      <c r="G32" s="29">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="29">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="I32" s="30">
+      <c r="I32" s="29">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="J32" s="30">
+      <c r="J32" s="29">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="29">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
-      <c r="L32" s="30">
+      <c r="L32" s="29">
         <f t="shared" si="16"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B33" s="28"/>
-      <c r="C33" s="36">
+      <c r="B33" s="6"/>
+      <c r="C33" s="35">
         <v>187.0</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D33" s="35">
         <v>187.0</v>
       </c>
-      <c r="E33" s="33">
+      <c r="E33" s="32">
         <f t="shared" ref="E33:L33" si="17">D33*(1+E32)</f>
         <v>205.7</v>
       </c>
-      <c r="F33" s="33">
+      <c r="F33" s="32">
         <f t="shared" si="17"/>
         <v>226.27</v>
       </c>
-      <c r="G33" s="33">
+      <c r="G33" s="32">
         <f t="shared" si="17"/>
         <v>248.897</v>
       </c>
-      <c r="H33" s="33">
+      <c r="H33" s="32">
         <f t="shared" si="17"/>
         <v>273.7867</v>
       </c>
-      <c r="I33" s="33">
+      <c r="I33" s="32">
         <f t="shared" si="17"/>
         <v>301.16537</v>
       </c>
-      <c r="J33" s="33">
+      <c r="J33" s="32">
         <f t="shared" si="17"/>
         <v>331.281907</v>
       </c>
-      <c r="K33" s="33">
+      <c r="K33" s="32">
         <f t="shared" si="17"/>
         <v>364.4100977</v>
       </c>
-      <c r="L33" s="33">
+      <c r="L33" s="32">
         <f t="shared" si="17"/>
         <v>400.8511075</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="34" t="s">
+      <c r="A34" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="35"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" t="s">
+      <c r="A35" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="28"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29">
+      <c r="B35" s="6"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="28"/>
+      <c r="E35" s="28">
         <v>0.1</v>
       </c>
-      <c r="F35" s="30">
+      <c r="F35" s="29">
         <f t="shared" ref="F35:L35" si="18">E35</f>
         <v>0.1</v>
       </c>
-      <c r="G35" s="30">
+      <c r="G35" s="29">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="29">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="I35" s="30">
+      <c r="I35" s="29">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="J35" s="30">
+      <c r="J35" s="29">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="29">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
-      <c r="L35" s="30">
+      <c r="L35" s="29">
         <f t="shared" si="18"/>
         <v>0.1</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B36" s="28"/>
-      <c r="C36" s="36">
+      <c r="B36" s="6"/>
+      <c r="C36" s="35">
         <v>194.0</v>
       </c>
-      <c r="D36" s="36">
+      <c r="D36" s="35">
         <v>194.0</v>
       </c>
-      <c r="E36" s="33">
+      <c r="E36" s="32">
         <f t="shared" ref="E36:L36" si="19">D36*(1+E35)</f>
         <v>213.4</v>
       </c>
-      <c r="F36" s="33">
+      <c r="F36" s="32">
         <f t="shared" si="19"/>
         <v>234.74</v>
       </c>
-      <c r="G36" s="33">
+      <c r="G36" s="32">
         <f t="shared" si="19"/>
         <v>258.214</v>
       </c>
-      <c r="H36" s="33">
+      <c r="H36" s="32">
         <f t="shared" si="19"/>
         <v>284.0354</v>
       </c>
-      <c r="I36" s="33">
+      <c r="I36" s="32">
         <f t="shared" si="19"/>
         <v>312.43894</v>
       </c>
-      <c r="J36" s="33">
+      <c r="J36" s="32">
         <f t="shared" si="19"/>
         <v>343.682834</v>
       </c>
-      <c r="K36" s="33">
+      <c r="K36" s="32">
         <f t="shared" si="19"/>
         <v>378.0511174</v>
       </c>
-      <c r="L36" s="33">
+      <c r="L36" s="32">
         <f t="shared" si="19"/>
         <v>415.8562291</v>
       </c>
     </row>
-    <row r="37" ht="12.75" customHeight="1"/>
-    <row r="38" ht="12.75" customHeight="1"/>
-    <row r="39" ht="12.75" customHeight="1"/>
-    <row r="40" ht="12.75" customHeight="1"/>
-    <row r="41" ht="12.75" customHeight="1"/>
-    <row r="42" ht="12.75" customHeight="1"/>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="A37" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="34"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+    </row>
+    <row r="38" ht="12.75" customHeight="1">
+      <c r="A38" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="28"/>
+      <c r="E38" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="F38" s="29">
+        <f t="shared" ref="F38:L38" si="20">E38</f>
+        <v>0.1</v>
+      </c>
+      <c r="G38" s="29">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="H38" s="29">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="I38" s="29">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="J38" s="29">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="K38" s="29">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+      <c r="L38" s="29">
+        <f t="shared" si="20"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="39" ht="12.75" customHeight="1">
+      <c r="A39" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="31">
+        <v>150.0</v>
+      </c>
+      <c r="D39" s="31">
+        <v>150.0</v>
+      </c>
+      <c r="E39" s="32">
+        <f t="shared" ref="E39:L39" si="21">D39*(1+E38)</f>
+        <v>165</v>
+      </c>
+      <c r="F39" s="32">
+        <f t="shared" si="21"/>
+        <v>181.5</v>
+      </c>
+      <c r="G39" s="32">
+        <f t="shared" si="21"/>
+        <v>199.65</v>
+      </c>
+      <c r="H39" s="32">
+        <f t="shared" si="21"/>
+        <v>219.615</v>
+      </c>
+      <c r="I39" s="32">
+        <f t="shared" si="21"/>
+        <v>241.5765</v>
+      </c>
+      <c r="J39" s="32">
+        <f t="shared" si="21"/>
+        <v>265.73415</v>
+      </c>
+      <c r="K39" s="32">
+        <f t="shared" si="21"/>
+        <v>292.307565</v>
+      </c>
+      <c r="L39" s="32">
+        <f t="shared" si="21"/>
+        <v>321.5383215</v>
+      </c>
+    </row>
+    <row r="40" ht="12.75" customHeight="1">
+      <c r="A40" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="34"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+    </row>
+    <row r="41" ht="12.75" customHeight="1">
+      <c r="A41" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="28"/>
+      <c r="E41" s="28">
+        <v>0.1</v>
+      </c>
+      <c r="F41" s="29">
+        <f t="shared" ref="F41:L41" si="22">E41</f>
+        <v>0.1</v>
+      </c>
+      <c r="G41" s="29">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="H41" s="29">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="I41" s="29">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="J41" s="29">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="K41" s="29">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+      <c r="L41" s="29">
+        <f t="shared" si="22"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="42" ht="12.75" customHeight="1">
+      <c r="A42" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="31">
+        <v>330.0</v>
+      </c>
+      <c r="D42" s="31">
+        <v>330.0</v>
+      </c>
+      <c r="E42" s="32">
+        <f t="shared" ref="E42:L42" si="23">D42*(1+E41)</f>
+        <v>363</v>
+      </c>
+      <c r="F42" s="32">
+        <f t="shared" si="23"/>
+        <v>399.3</v>
+      </c>
+      <c r="G42" s="32">
+        <f t="shared" si="23"/>
+        <v>439.23</v>
+      </c>
+      <c r="H42" s="32">
+        <f t="shared" si="23"/>
+        <v>483.153</v>
+      </c>
+      <c r="I42" s="32">
+        <f t="shared" si="23"/>
+        <v>531.4683</v>
+      </c>
+      <c r="J42" s="32">
+        <f t="shared" si="23"/>
+        <v>584.61513</v>
+      </c>
+      <c r="K42" s="32">
+        <f t="shared" si="23"/>
+        <v>643.076643</v>
+      </c>
+      <c r="L42" s="32">
+        <f t="shared" si="23"/>
+        <v>707.3843073</v>
+      </c>
+    </row>
     <row r="43" ht="12.75" customHeight="1"/>
-    <row r="44" ht="12.75" customHeight="1">
-      <c r="A44" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="B44" s="6"/>
-      <c r="C44" s="37">
-        <f t="shared" ref="C44:L44" si="20">C12+C15+C18+C21+C24+C27+C30+C33+C36</f>
-        <v>4996</v>
-      </c>
-      <c r="D44" s="37">
-        <f t="shared" si="20"/>
-        <v>4996</v>
-      </c>
-      <c r="E44" s="37">
-        <f t="shared" si="20"/>
-        <v>5495.6</v>
-      </c>
-      <c r="F44" s="37">
-        <f t="shared" si="20"/>
-        <v>6045.16</v>
-      </c>
-      <c r="G44" s="37">
-        <f t="shared" si="20"/>
-        <v>6649.676</v>
-      </c>
-      <c r="H44" s="37">
-        <f t="shared" si="20"/>
-        <v>7314.6436</v>
-      </c>
-      <c r="I44" s="37">
-        <f t="shared" si="20"/>
-        <v>8046.10796</v>
-      </c>
-      <c r="J44" s="37">
-        <f t="shared" si="20"/>
-        <v>8850.718756</v>
-      </c>
-      <c r="K44" s="37">
-        <f t="shared" si="20"/>
-        <v>9735.790632</v>
-      </c>
-      <c r="L44" s="37">
-        <f t="shared" si="20"/>
-        <v>10709.36969</v>
-      </c>
-    </row>
+    <row r="44" ht="12.75" customHeight="1"/>
     <row r="45" ht="12.75" customHeight="1"/>
-    <row r="46" ht="12.75" customHeight="1">
-      <c r="A46" s="22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" ht="12.75" customHeight="1">
-      <c r="A47" s="38" t="s">
+    <row r="46" ht="12.75" customHeight="1"/>
+    <row r="47" ht="12.75" customHeight="1"/>
+    <row r="48" ht="12.75" customHeight="1"/>
+    <row r="49" ht="12.75" customHeight="1"/>
+    <row r="50" ht="12.75" customHeight="1"/>
+    <row r="51" ht="12.75" customHeight="1"/>
+    <row r="52" ht="12.75" customHeight="1"/>
+    <row r="53" ht="12.75" customHeight="1">
+      <c r="A53" s="43" t="s">
         <v>44</v>
       </c>
-      <c r="C47" s="39">
+      <c r="B53" s="6"/>
+      <c r="C53" s="37">
+        <f t="shared" ref="C53:L53" si="24">C12+C15+C18+C21+C24+C27+C30+C33+C36+C39+C42</f>
+        <v>5476</v>
+      </c>
+      <c r="D53" s="37">
+        <f t="shared" si="24"/>
+        <v>5476</v>
+      </c>
+      <c r="E53" s="37">
+        <f t="shared" si="24"/>
+        <v>6023.6</v>
+      </c>
+      <c r="F53" s="37">
+        <f t="shared" si="24"/>
+        <v>6625.96</v>
+      </c>
+      <c r="G53" s="37">
+        <f t="shared" si="24"/>
+        <v>7288.556</v>
+      </c>
+      <c r="H53" s="37">
+        <f t="shared" si="24"/>
+        <v>8017.4116</v>
+      </c>
+      <c r="I53" s="37">
+        <f t="shared" si="24"/>
+        <v>8819.15276</v>
+      </c>
+      <c r="J53" s="37">
+        <f t="shared" si="24"/>
+        <v>9701.068036</v>
+      </c>
+      <c r="K53" s="37">
+        <f t="shared" si="24"/>
+        <v>10671.17484</v>
+      </c>
+      <c r="L53" s="37">
+        <f t="shared" si="24"/>
+        <v>11738.29232</v>
+      </c>
+    </row>
+    <row r="54" ht="12.75" customHeight="1"/>
+    <row r="55" ht="12.75" customHeight="1">
+      <c r="A55" s="38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" ht="12.75" customHeight="1">
+      <c r="A56" s="39" t="s">
+        <v>46</v>
+      </c>
+      <c r="C56" s="40">
         <v>1700.0</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D56" s="40">
         <v>450.0</v>
       </c>
-      <c r="E47" s="39">
+      <c r="E56" s="40">
         <v>450.0</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F56" s="40">
         <v>450.0</v>
       </c>
-      <c r="G47" s="39">
+      <c r="G56" s="40">
         <v>450.0</v>
       </c>
-      <c r="H47" s="39">
+      <c r="H56" s="40">
         <v>450.0</v>
       </c>
-      <c r="I47" s="39">
+      <c r="I56" s="40">
         <v>450.0</v>
       </c>
-      <c r="J47" s="39">
+      <c r="J56" s="40">
         <v>450.0</v>
       </c>
-      <c r="K47" s="39">
+      <c r="K56" s="40">
         <v>450.0</v>
       </c>
-      <c r="L47" s="39">
+      <c r="L56" s="40">
         <v>450.0</v>
       </c>
     </row>
-    <row r="48" ht="12.75" customHeight="1">
-      <c r="A48" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="C48" s="39">
+    <row r="57" ht="12.75" customHeight="1">
+      <c r="A57" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="C57" s="40">
         <v>0.0</v>
       </c>
-      <c r="D48" s="39">
+      <c r="D57" s="40">
         <v>0.0</v>
       </c>
-      <c r="E48" s="39">
+      <c r="E57" s="40">
         <v>0.0</v>
       </c>
-      <c r="F48" s="39">
+      <c r="F57" s="40">
         <v>0.0</v>
       </c>
-      <c r="G48" s="39">
+      <c r="G57" s="40">
         <v>0.0</v>
       </c>
-      <c r="H48" s="39">
+      <c r="H57" s="40">
         <v>0.0</v>
       </c>
-      <c r="I48" s="39">
+      <c r="I57" s="40">
         <v>0.0</v>
       </c>
-      <c r="J48" s="39">
+      <c r="J57" s="40">
         <v>0.0</v>
       </c>
-      <c r="K48" s="39">
+      <c r="K57" s="40">
         <v>0.0</v>
       </c>
-      <c r="L48" s="39">
+      <c r="L57" s="40">
         <v>0.0</v>
       </c>
     </row>
-    <row r="49" ht="12.75" customHeight="1">
-      <c r="A49" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C49" s="39">
+    <row r="58" ht="12.75" customHeight="1">
+      <c r="A58" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="40">
         <v>500.0</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D58" s="40">
         <v>500.0</v>
       </c>
-      <c r="E49" s="39">
+      <c r="E58" s="40">
         <v>500.0</v>
       </c>
-      <c r="F49" s="39">
+      <c r="F58" s="40">
         <v>0.0</v>
       </c>
-      <c r="G49" s="39">
+      <c r="G58" s="40">
         <v>0.0</v>
       </c>
-      <c r="H49" s="39">
+      <c r="H58" s="40">
         <v>0.0</v>
       </c>
-      <c r="I49" s="39">
+      <c r="I58" s="40">
         <v>0.0</v>
       </c>
-      <c r="J49" s="39">
+      <c r="J58" s="40">
         <v>0.0</v>
       </c>
-      <c r="K49" s="39">
+      <c r="K58" s="40">
         <v>0.0</v>
       </c>
-      <c r="L49" s="39">
+      <c r="L58" s="40">
         <v>0.0</v>
       </c>
     </row>
-    <row r="50" ht="12.75" customHeight="1">
-      <c r="A50" s="56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B50" s="57"/>
-    </row>
-    <row r="51" ht="12.75" customHeight="1"/>
-    <row r="52" ht="12.75" customHeight="1">
-      <c r="A52" s="38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" ht="12.75" customHeight="1">
-      <c r="A53" s="31"/>
-    </row>
-    <row r="54" ht="12.75" customHeight="1">
-      <c r="A54" s="42" t="s">
+    <row r="59" ht="12.75" customHeight="1">
+      <c r="A59" s="41" t="s">
         <v>49</v>
       </c>
-      <c r="B54" s="6"/>
-      <c r="C54" s="37">
-        <f t="shared" ref="C54:L54" si="21">SUM(C47:C52)</f>
+      <c r="B59" s="51"/>
+    </row>
+    <row r="60" ht="12.75" customHeight="1"/>
+    <row r="61" ht="12.75" customHeight="1">
+      <c r="A61" s="39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" ht="12.75" customHeight="1">
+      <c r="A62" s="39"/>
+    </row>
+    <row r="63" ht="12.75" customHeight="1">
+      <c r="A63" s="43" t="s">
+        <v>51</v>
+      </c>
+      <c r="B63" s="44"/>
+      <c r="C63" s="37">
+        <f t="shared" ref="C63:L63" si="25">SUM(C56:C61)</f>
         <v>2200</v>
       </c>
-      <c r="D54" s="37">
-        <f t="shared" si="21"/>
+      <c r="D63" s="37">
+        <f t="shared" si="25"/>
         <v>950</v>
       </c>
-      <c r="E54" s="37">
-        <f t="shared" si="21"/>
+      <c r="E63" s="37">
+        <f t="shared" si="25"/>
         <v>950</v>
       </c>
-      <c r="F54" s="37">
-        <f t="shared" si="21"/>
+      <c r="F63" s="37">
+        <f t="shared" si="25"/>
         <v>450</v>
       </c>
-      <c r="G54" s="37">
-        <f t="shared" si="21"/>
+      <c r="G63" s="37">
+        <f t="shared" si="25"/>
         <v>450</v>
       </c>
-      <c r="H54" s="37">
-        <f t="shared" si="21"/>
+      <c r="H63" s="37">
+        <f t="shared" si="25"/>
         <v>450</v>
       </c>
-      <c r="I54" s="37">
-        <f t="shared" si="21"/>
+      <c r="I63" s="37">
+        <f t="shared" si="25"/>
         <v>450</v>
       </c>
-      <c r="J54" s="37">
-        <f t="shared" si="21"/>
+      <c r="J63" s="37">
+        <f t="shared" si="25"/>
         <v>450</v>
       </c>
-      <c r="K54" s="37">
-        <f t="shared" si="21"/>
+      <c r="K63" s="37">
+        <f t="shared" si="25"/>
         <v>450</v>
       </c>
-      <c r="L54" s="37">
-        <f t="shared" si="21"/>
+      <c r="L63" s="37">
+        <f t="shared" si="25"/>
         <v>450</v>
       </c>
     </row>
-    <row r="55" ht="12.75" customHeight="1">
-      <c r="A55" s="31"/>
-    </row>
-    <row r="56" ht="12.75" customHeight="1">
-      <c r="A56" s="42" t="s">
-        <v>49</v>
-      </c>
-      <c r="B56" s="6"/>
-      <c r="C56" s="37">
-        <f t="shared" ref="C56:L56" si="22">C44+C54</f>
-        <v>7196</v>
-      </c>
-      <c r="D56" s="37">
-        <f t="shared" si="22"/>
-        <v>5946</v>
-      </c>
-      <c r="E56" s="37">
-        <f t="shared" si="22"/>
-        <v>6445.6</v>
-      </c>
-      <c r="F56" s="37">
-        <f t="shared" si="22"/>
-        <v>6495.16</v>
-      </c>
-      <c r="G56" s="37">
-        <f t="shared" si="22"/>
-        <v>7099.676</v>
-      </c>
-      <c r="H56" s="37">
-        <f t="shared" si="22"/>
-        <v>7764.6436</v>
-      </c>
-      <c r="I56" s="37">
-        <f t="shared" si="22"/>
-        <v>8496.10796</v>
-      </c>
-      <c r="J56" s="37">
-        <f t="shared" si="22"/>
-        <v>9300.718756</v>
-      </c>
-      <c r="K56" s="37">
-        <f t="shared" si="22"/>
-        <v>10185.79063</v>
-      </c>
-      <c r="L56" s="37">
-        <f t="shared" si="22"/>
-        <v>11159.36969</v>
-      </c>
-    </row>
-    <row r="57" ht="12.75" customHeight="1">
-      <c r="A57" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="B57" s="28"/>
-      <c r="C57" s="37">
-        <f t="shared" ref="C57:C59" si="24">C56</f>
-        <v>7196</v>
-      </c>
-      <c r="D57" s="37">
-        <f t="shared" ref="D57:L57" si="23">C57+D56</f>
-        <v>13142</v>
-      </c>
-      <c r="E57" s="37">
-        <f t="shared" si="23"/>
-        <v>19587.6</v>
-      </c>
-      <c r="F57" s="37">
-        <f t="shared" si="23"/>
-        <v>26082.76</v>
-      </c>
-      <c r="G57" s="37">
-        <f t="shared" si="23"/>
-        <v>33182.436</v>
-      </c>
-      <c r="H57" s="37">
-        <f t="shared" si="23"/>
-        <v>40947.0796</v>
-      </c>
-      <c r="I57" s="37">
-        <f t="shared" si="23"/>
-        <v>49443.18756</v>
-      </c>
-      <c r="J57" s="37">
-        <f t="shared" si="23"/>
-        <v>58743.90632</v>
-      </c>
-      <c r="K57" s="37">
-        <f t="shared" si="23"/>
-        <v>68929.69695</v>
-      </c>
-      <c r="L57" s="37">
-        <f t="shared" si="23"/>
-        <v>80089.06664</v>
-      </c>
-    </row>
-    <row r="58" ht="12.75" customHeight="1">
-      <c r="A58" s="42" t="s">
+    <row r="64" ht="12.75" customHeight="1">
+      <c r="A64" s="39"/>
+    </row>
+    <row r="65" ht="12.75" customHeight="1">
+      <c r="A65" s="43" t="s">
         <v>51</v>
       </c>
-      <c r="C58" s="37">
-        <f t="shared" si="24"/>
-        <v>7196</v>
-      </c>
-      <c r="D58" s="37">
-        <f>PV(Param!$C$3,D2,0,-D56)</f>
-        <v>5609.433962</v>
-      </c>
-      <c r="E58" s="37">
-        <f>PV(Param!$C$3,E2,0,-E56)</f>
-        <v>5736.561054</v>
-      </c>
-      <c r="F58" s="37">
-        <f>PV(Param!$C$3,F2,0,-F56)</f>
-        <v>5453.461582</v>
-      </c>
-      <c r="G58" s="37">
-        <f>PV(Param!$C$3,G2,0,-G56)</f>
-        <v>5623.608371</v>
-      </c>
-      <c r="H58" s="37">
-        <f>PV(Param!$C$3,H2,0,-H56)</f>
-        <v>5802.193389</v>
-      </c>
-      <c r="I58" s="37">
-        <f>PV(Param!$C$3,I2,0,-I56)</f>
-        <v>5989.420859</v>
-      </c>
-      <c r="J58" s="37">
-        <f>PV(Param!$C$3,J2,0,-J56)</f>
-        <v>6185.50917</v>
-      </c>
-      <c r="K58" s="37">
-        <f>PV(Param!$C$3,K2,0,-K56)</f>
-        <v>6390.691054</v>
-      </c>
-      <c r="L58" s="37">
-        <f>PV(Param!$C$3,L2,0,-L56)</f>
-        <v>6605.213776</v>
-      </c>
-    </row>
-    <row r="59" ht="12.75" customHeight="1">
-      <c r="A59" s="42" t="s">
+      <c r="B65" s="44"/>
+      <c r="C65" s="37">
+        <f t="shared" ref="C65:L65" si="26">C53+C63</f>
+        <v>7676</v>
+      </c>
+      <c r="D65" s="37">
+        <f t="shared" si="26"/>
+        <v>6426</v>
+      </c>
+      <c r="E65" s="37">
+        <f t="shared" si="26"/>
+        <v>6973.6</v>
+      </c>
+      <c r="F65" s="37">
+        <f t="shared" si="26"/>
+        <v>7075.96</v>
+      </c>
+      <c r="G65" s="37">
+        <f t="shared" si="26"/>
+        <v>7738.556</v>
+      </c>
+      <c r="H65" s="37">
+        <f t="shared" si="26"/>
+        <v>8467.4116</v>
+      </c>
+      <c r="I65" s="37">
+        <f t="shared" si="26"/>
+        <v>9269.15276</v>
+      </c>
+      <c r="J65" s="37">
+        <f t="shared" si="26"/>
+        <v>10151.06804</v>
+      </c>
+      <c r="K65" s="37">
+        <f t="shared" si="26"/>
+        <v>11121.17484</v>
+      </c>
+      <c r="L65" s="37">
+        <f t="shared" si="26"/>
+        <v>12188.29232</v>
+      </c>
+    </row>
+    <row r="66" ht="12.75" customHeight="1">
+      <c r="A66" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="C59" s="37">
-        <f t="shared" si="24"/>
-        <v>7196</v>
-      </c>
-      <c r="D59" s="37">
-        <f t="shared" ref="D59:L59" si="25">C59+D58</f>
-        <v>12805.43396</v>
-      </c>
-      <c r="E59" s="37">
-        <f t="shared" si="25"/>
-        <v>18541.99502</v>
-      </c>
-      <c r="F59" s="37">
-        <f t="shared" si="25"/>
-        <v>23995.4566</v>
-      </c>
-      <c r="G59" s="37">
-        <f t="shared" si="25"/>
-        <v>29619.06497</v>
-      </c>
-      <c r="H59" s="37">
-        <f t="shared" si="25"/>
-        <v>35421.25836</v>
-      </c>
-      <c r="I59" s="37">
-        <f t="shared" si="25"/>
-        <v>41410.67922</v>
-      </c>
-      <c r="J59" s="37">
-        <f t="shared" si="25"/>
-        <v>47596.18839</v>
-      </c>
-      <c r="K59" s="37">
-        <f t="shared" si="25"/>
-        <v>53986.87944</v>
-      </c>
-      <c r="L59" s="37">
-        <f t="shared" si="25"/>
-        <v>60592.09322</v>
-      </c>
-    </row>
-    <row r="60" ht="12.75" customHeight="1">
-      <c r="D60" s="58"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
-      <c r="H60" s="58"/>
-    </row>
-    <row r="61" ht="12.75" customHeight="1">
-      <c r="A61" s="44" t="s">
+      <c r="B66" s="44"/>
+      <c r="C66" s="37">
+        <f t="shared" ref="C66:C68" si="28">C65</f>
+        <v>7676</v>
+      </c>
+      <c r="D66" s="37">
+        <f t="shared" ref="D66:L66" si="27">C66+D65</f>
+        <v>14102</v>
+      </c>
+      <c r="E66" s="37">
+        <f t="shared" si="27"/>
+        <v>21075.6</v>
+      </c>
+      <c r="F66" s="37">
+        <f t="shared" si="27"/>
+        <v>28151.56</v>
+      </c>
+      <c r="G66" s="37">
+        <f t="shared" si="27"/>
+        <v>35890.116</v>
+      </c>
+      <c r="H66" s="37">
+        <f t="shared" si="27"/>
+        <v>44357.5276</v>
+      </c>
+      <c r="I66" s="37">
+        <f t="shared" si="27"/>
+        <v>53626.68036</v>
+      </c>
+      <c r="J66" s="37">
+        <f t="shared" si="27"/>
+        <v>63777.7484</v>
+      </c>
+      <c r="K66" s="37">
+        <f t="shared" si="27"/>
+        <v>74898.92324</v>
+      </c>
+      <c r="L66" s="37">
+        <f t="shared" si="27"/>
+        <v>87087.21556</v>
+      </c>
+    </row>
+    <row r="67" ht="12.75" customHeight="1">
+      <c r="A67" s="43" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="62" ht="12.75" customHeight="1">
-      <c r="A62" s="45"/>
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-    </row>
-    <row r="63" ht="12.75" customHeight="1">
-      <c r="A63" s="45" t="s">
+      <c r="C67" s="37">
+        <f t="shared" si="28"/>
+        <v>7676</v>
+      </c>
+      <c r="D67" s="37">
+        <f>PV(Param!$C$3,D2,0,-D65)</f>
+        <v>6062.264151</v>
+      </c>
+      <c r="E67" s="37">
+        <f>PV(Param!$C$3,E2,0,-E65)</f>
+        <v>6206.479174</v>
+      </c>
+      <c r="F67" s="37">
+        <f>PV(Param!$C$3,F2,0,-F65)</f>
+        <v>5941.112462</v>
+      </c>
+      <c r="G67" s="37">
+        <f>PV(Param!$C$3,G2,0,-G65)</f>
+        <v>6129.66117</v>
+      </c>
+      <c r="H67" s="37">
+        <f>PV(Param!$C$3,H2,0,-H65)</f>
+        <v>6327.342521</v>
+      </c>
+      <c r="I67" s="37">
+        <f>PV(Param!$C$3,I2,0,-I65)</f>
+        <v>6534.386939</v>
+      </c>
+      <c r="J67" s="37">
+        <f>PV(Param!$C$3,J2,0,-J65)</f>
+        <v>6751.040008</v>
+      </c>
+      <c r="K67" s="37">
+        <f>PV(Param!$C$3,K2,0,-K65)</f>
+        <v>6977.562678</v>
+      </c>
+      <c r="L67" s="37">
+        <f>PV(Param!$C$3,L2,0,-L65)</f>
+        <v>7214.231499</v>
+      </c>
+    </row>
+    <row r="68" ht="12.75" customHeight="1">
+      <c r="A68" s="24" t="s">
         <v>54</v>
       </c>
-      <c r="B63" s="47"/>
-      <c r="C63" s="48">
-        <f t="array" ref="C63">NPV(Param!C3,D56:L56)+C56</f>
-        <v>60592.09322</v>
-      </c>
-    </row>
-    <row r="64" ht="12.75" customHeight="1">
-      <c r="A64" s="45" t="s">
+      <c r="C68" s="37">
+        <f t="shared" si="28"/>
+        <v>7676</v>
+      </c>
+      <c r="D68" s="37">
+        <f t="shared" ref="D68:L68" si="29">C68+D67</f>
+        <v>13738.26415</v>
+      </c>
+      <c r="E68" s="37">
+        <f t="shared" si="29"/>
+        <v>19944.74333</v>
+      </c>
+      <c r="F68" s="37">
+        <f t="shared" si="29"/>
+        <v>25885.85579</v>
+      </c>
+      <c r="G68" s="37">
+        <f t="shared" si="29"/>
+        <v>32015.51696</v>
+      </c>
+      <c r="H68" s="37">
+        <f t="shared" si="29"/>
+        <v>38342.85948</v>
+      </c>
+      <c r="I68" s="37">
+        <f t="shared" si="29"/>
+        <v>44877.24642</v>
+      </c>
+      <c r="J68" s="37">
+        <f t="shared" si="29"/>
+        <v>51628.28643</v>
+      </c>
+      <c r="K68" s="37">
+        <f t="shared" si="29"/>
+        <v>58605.8491</v>
+      </c>
+      <c r="L68" s="37">
+        <f t="shared" si="29"/>
+        <v>65820.0806</v>
+      </c>
+    </row>
+    <row r="69" ht="12.75" customHeight="1">
+      <c r="D69" s="45"/>
+      <c r="E69" s="45"/>
+      <c r="F69" s="45"/>
+      <c r="G69" s="45"/>
+      <c r="H69" s="45"/>
+    </row>
+    <row r="70" ht="12.75" customHeight="1">
+      <c r="A70" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="C64" s="49">
-        <f>COUNTIF(C57:L57,"&lt;=0")</f>
+    </row>
+    <row r="71" ht="12.75" customHeight="1">
+      <c r="A71" s="46"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="47"/>
+    </row>
+    <row r="72" ht="12.75" customHeight="1">
+      <c r="A72" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="B72" s="48"/>
+      <c r="C72" s="48">
+        <f t="array" ref="C72">NPV(Param!C3,D65:L65)+C65</f>
+        <v>65820.0806</v>
+      </c>
+    </row>
+    <row r="73" ht="12.75" customHeight="1">
+      <c r="A73" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C73" s="34">
+        <f>COUNTIF(C66:L66,"&lt;=0")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" ht="12.75" customHeight="1">
-      <c r="A65" s="45" t="s">
-        <v>56</v>
-      </c>
-      <c r="B65" s="50"/>
-      <c r="C65" s="49">
-        <f>COUNTIF(C59:L59,"&lt;=0")</f>
+    <row r="74" ht="12.75" customHeight="1">
+      <c r="A74" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="49"/>
+      <c r="C74" s="34">
+        <f>COUNTIF(C68:L68,"&lt;=0")</f>
         <v>0</v>
       </c>
     </row>
-    <row r="66" ht="12.75" customHeight="1">
-      <c r="A66" s="45" t="s">
-        <v>57</v>
-      </c>
-      <c r="B66" s="52"/>
-      <c r="C66" s="53">
-        <f>SUM(D56:L56)/-C56</f>
-        <v>-10.12966463</v>
-      </c>
-    </row>
-    <row r="67" ht="12.75" customHeight="1">
-      <c r="A67" s="51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C67" s="53">
-        <f>SUM(D58:L58)/-C58</f>
-        <v>-7.420246417</v>
-      </c>
-    </row>
-    <row r="68" ht="12.75" customHeight="1"/>
-    <row r="69" ht="12.75" customHeight="1"/>
-    <row r="70" ht="12.75" customHeight="1"/>
-    <row r="71" ht="12.75" customHeight="1"/>
-    <row r="72" ht="12.75" customHeight="1"/>
-    <row r="73" ht="12.75" customHeight="1"/>
-    <row r="74" ht="12.75" customHeight="1"/>
-    <row r="75" ht="12.75" customHeight="1"/>
-    <row r="76" ht="12.75" customHeight="1"/>
+    <row r="75" ht="12.75" customHeight="1">
+      <c r="A75" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="47"/>
+      <c r="C75" s="50">
+        <f>SUM(D65:L65)/-C65</f>
+        <v>-10.34539025</v>
+      </c>
+    </row>
+    <row r="76" ht="12.75" customHeight="1">
+      <c r="A76" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="50">
+        <f>SUM(D67:L67)/-C67</f>
+        <v>-7.574789031</v>
+      </c>
+    </row>
     <row r="77" ht="12.75" customHeight="1"/>
     <row r="78" ht="12.75" customHeight="1"/>
     <row r="79" ht="12.75" customHeight="1"/>
@@ -34241,351 +34626,351 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="B1" s="60" t="s">
-        <v>61</v>
-      </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="60" t="s">
+      <c r="A1" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>63</v>
       </c>
-      <c r="G1" s="62" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="53" t="s">
         <v>64</v>
       </c>
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="55" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="C2" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="63" t="s">
-        <v>65</v>
-      </c>
-      <c r="E2" s="64" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
+      <c r="B2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="58"/>
+      <c r="G2" s="58"/>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="66">
+      <c r="A3" s="59">
         <v>0.0</v>
       </c>
-      <c r="B3" s="67">
-        <f>HLOOKUP($A3,Orcado!$C$2:$L$48,35,FALSE)</f>
+      <c r="B3" s="60">
+        <f>HLOOKUP($A3,Orcado!$C$2:$L$60,35,FALSE)</f>
         <v>223</v>
       </c>
-      <c r="C3" s="67">
-        <f>HLOOKUP($A3,Realizado!$C$2:$L$54,35,FALSE)</f>
+      <c r="C3" s="60">
+        <f>HLOOKUP($A3,Realizado!$C$2:$L$63,35,FALSE)</f>
         <v>194</v>
       </c>
-      <c r="D3" s="67">
+      <c r="D3" s="60">
         <f t="shared" ref="D3:E3" si="1">B3</f>
         <v>223</v>
       </c>
-      <c r="E3" s="67">
+      <c r="E3" s="60">
         <f t="shared" si="1"/>
         <v>194</v>
       </c>
-      <c r="F3" s="67">
+      <c r="F3" s="60">
         <f t="shared" ref="F3:F12" si="3">E3-D3</f>
         <v>-29</v>
       </c>
-      <c r="G3" s="68">
+      <c r="G3" s="61">
         <f t="shared" ref="G3:G12" si="4">E3/D3-1</f>
         <v>-0.130044843</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="66">
+      <c r="A4" s="59">
         <f t="shared" ref="A4:A12" si="5">A3+1</f>
         <v>1</v>
       </c>
-      <c r="B4" s="67">
-        <f>HLOOKUP($A4,Orcado!$C$2:$L$48,35,FALSE)</f>
+      <c r="B4" s="60">
+        <f>HLOOKUP($A4,Orcado!$C$2:$L$60,35,FALSE)</f>
         <v>223</v>
       </c>
-      <c r="C4" s="67">
-        <f>HLOOKUP($A4,Realizado!$C$2:$L$54,35,FALSE)</f>
+      <c r="C4" s="60">
+        <f>HLOOKUP($A4,Realizado!$C$2:$L$63,35,FALSE)</f>
         <v>194</v>
       </c>
-      <c r="D4" s="67">
+      <c r="D4" s="60">
         <f t="shared" ref="D4:E4" si="2">D3+B4</f>
         <v>446</v>
       </c>
-      <c r="E4" s="67">
+      <c r="E4" s="60">
         <f t="shared" si="2"/>
         <v>388</v>
       </c>
-      <c r="F4" s="67">
+      <c r="F4" s="60">
         <f t="shared" si="3"/>
         <v>-58</v>
       </c>
-      <c r="G4" s="68">
+      <c r="G4" s="61">
         <f t="shared" si="4"/>
         <v>-0.130044843</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="66">
+      <c r="A5" s="59">
         <f t="shared" si="5"/>
         <v>2</v>
       </c>
-      <c r="B5" s="67">
-        <f>HLOOKUP($A5,Orcado!$C$2:$L$48,35,FALSE)</f>
+      <c r="B5" s="60">
+        <f>HLOOKUP($A5,Orcado!$C$2:$L$60,35,FALSE)</f>
         <v>245.3</v>
       </c>
-      <c r="C5" s="67">
-        <f>HLOOKUP($A5,Realizado!$C$2:$L$54,35,FALSE)</f>
+      <c r="C5" s="60">
+        <f>HLOOKUP($A5,Realizado!$C$2:$L$63,35,FALSE)</f>
         <v>213.4</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="60">
         <f t="shared" ref="D5:E5" si="6">D4+B5</f>
         <v>691.3</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="60">
         <f t="shared" si="6"/>
         <v>601.4</v>
       </c>
-      <c r="F5" s="67">
+      <c r="F5" s="60">
         <f t="shared" si="3"/>
         <v>-89.9</v>
       </c>
-      <c r="G5" s="68">
+      <c r="G5" s="61">
         <f t="shared" si="4"/>
         <v>-0.130044843</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="66">
+      <c r="A6" s="59">
         <f t="shared" si="5"/>
         <v>3</v>
       </c>
-      <c r="B6" s="67">
-        <f>HLOOKUP($A6,Orcado!$C$2:$L$48,35,FALSE)</f>
+      <c r="B6" s="60">
+        <f>HLOOKUP($A6,Orcado!$C$2:$L$60,35,FALSE)</f>
         <v>269.83</v>
       </c>
-      <c r="C6" s="67">
-        <f>HLOOKUP($A6,Realizado!$C$2:$L$54,35,FALSE)</f>
+      <c r="C6" s="60">
+        <f>HLOOKUP($A6,Realizado!$C$2:$L$63,35,FALSE)</f>
         <v>234.74</v>
       </c>
-      <c r="D6" s="67">
+      <c r="D6" s="60">
         <f t="shared" ref="D6:E6" si="7">D5+B6</f>
         <v>961.13</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="60">
         <f t="shared" si="7"/>
         <v>836.14</v>
       </c>
-      <c r="F6" s="67">
+      <c r="F6" s="60">
         <f t="shared" si="3"/>
         <v>-124.99</v>
       </c>
-      <c r="G6" s="68">
+      <c r="G6" s="61">
         <f t="shared" si="4"/>
         <v>-0.130044843</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="66">
+      <c r="A7" s="59">
         <f t="shared" si="5"/>
         <v>4</v>
       </c>
-      <c r="B7" s="67">
-        <f>HLOOKUP($A7,Orcado!$C$2:$L$48,35,FALSE)</f>
+      <c r="B7" s="60">
+        <f>HLOOKUP($A7,Orcado!$C$2:$L$60,35,FALSE)</f>
         <v>296.813</v>
       </c>
-      <c r="C7" s="67">
-        <f>HLOOKUP($A7,Realizado!$C$2:$L$54,35,FALSE)</f>
+      <c r="C7" s="60">
+        <f>HLOOKUP($A7,Realizado!$C$2:$L$63,35,FALSE)</f>
         <v>258.214</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="60">
         <f t="shared" ref="D7:E7" si="8">D6+B7</f>
         <v>1257.943</v>
       </c>
-      <c r="E7" s="67">
+      <c r="E7" s="60">
         <f t="shared" si="8"/>
         <v>1094.354</v>
       </c>
-      <c r="F7" s="67">
+      <c r="F7" s="60">
         <f t="shared" si="3"/>
         <v>-163.589</v>
       </c>
-      <c r="G7" s="68">
+      <c r="G7" s="61">
         <f t="shared" si="4"/>
         <v>-0.130044843</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="66">
+      <c r="A8" s="59">
         <f t="shared" si="5"/>
         <v>5</v>
       </c>
-      <c r="B8" s="67">
-        <f>HLOOKUP($A8,Orcado!$C$2:$L$48,35,FALSE)</f>
+      <c r="B8" s="60">
+        <f>HLOOKUP($A8,Orcado!$C$2:$L$60,35,FALSE)</f>
         <v>326.4943</v>
       </c>
-      <c r="C8" s="67">
-        <f>HLOOKUP($A8,Realizado!$C$2:$L$54,35,FALSE)</f>
+      <c r="C8" s="60">
+        <f>HLOOKUP($A8,Realizado!$C$2:$L$63,35,FALSE)</f>
         <v>284.0354</v>
       </c>
-      <c r="D8" s="67">
+      <c r="D8" s="60">
         <f t="shared" ref="D8:E8" si="9">D7+B8</f>
         <v>1584.4373</v>
       </c>
-      <c r="E8" s="67">
+      <c r="E8" s="60">
         <f t="shared" si="9"/>
         <v>1378.3894</v>
       </c>
-      <c r="F8" s="67">
+      <c r="F8" s="60">
         <f t="shared" si="3"/>
         <v>-206.0479</v>
       </c>
-      <c r="G8" s="68">
+      <c r="G8" s="61">
         <f t="shared" si="4"/>
         <v>-0.130044843</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="66">
+      <c r="A9" s="59">
         <f t="shared" si="5"/>
         <v>6</v>
       </c>
-      <c r="B9" s="67">
-        <f>HLOOKUP($A9,Orcado!$C$2:$L$48,35,FALSE)</f>
+      <c r="B9" s="60">
+        <f>HLOOKUP($A9,Orcado!$C$2:$L$60,35,FALSE)</f>
         <v>359.14373</v>
       </c>
-      <c r="C9" s="67">
-        <f>HLOOKUP($A9,Realizado!$C$2:$L$54,35,FALSE)</f>
+      <c r="C9" s="60">
+        <f>HLOOKUP($A9,Realizado!$C$2:$L$63,35,FALSE)</f>
         <v>312.43894</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="60">
         <f t="shared" ref="D9:E9" si="10">D8+B9</f>
         <v>1943.58103</v>
       </c>
-      <c r="E9" s="67">
+      <c r="E9" s="60">
         <f t="shared" si="10"/>
         <v>1690.82834</v>
       </c>
-      <c r="F9" s="67">
+      <c r="F9" s="60">
         <f t="shared" si="3"/>
         <v>-252.75269</v>
       </c>
-      <c r="G9" s="68">
+      <c r="G9" s="61">
         <f t="shared" si="4"/>
         <v>-0.130044843</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="66">
+      <c r="A10" s="59">
         <f t="shared" si="5"/>
         <v>7</v>
       </c>
-      <c r="B10" s="67">
-        <f>HLOOKUP($A10,Orcado!$C$2:$L$48,35,FALSE)</f>
+      <c r="B10" s="60">
+        <f>HLOOKUP($A10,Orcado!$C$2:$L$60,35,FALSE)</f>
         <v>395.058103</v>
       </c>
-      <c r="C10" s="67">
-        <f>HLOOKUP($A10,Realizado!$C$2:$L$54,35,FALSE)</f>
+      <c r="C10" s="60">
+        <f>HLOOKUP($A10,Realizado!$C$2:$L$63,35,FALSE)</f>
         <v>343.682834</v>
       </c>
-      <c r="D10" s="67">
+      <c r="D10" s="60">
         <f t="shared" ref="D10:E10" si="11">D9+B10</f>
         <v>2338.639133</v>
       </c>
-      <c r="E10" s="67">
+      <c r="E10" s="60">
         <f t="shared" si="11"/>
         <v>2034.511174</v>
       </c>
-      <c r="F10" s="67">
+      <c r="F10" s="60">
         <f t="shared" si="3"/>
         <v>-304.127959</v>
       </c>
-      <c r="G10" s="68">
+      <c r="G10" s="61">
         <f t="shared" si="4"/>
         <v>-0.130044843</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="66">
+      <c r="A11" s="59">
         <f t="shared" si="5"/>
         <v>8</v>
       </c>
-      <c r="B11" s="67">
-        <f>HLOOKUP($A11,Orcado!$C$2:$L$48,35,FALSE)</f>
+      <c r="B11" s="60">
+        <f>HLOOKUP($A11,Orcado!$C$2:$L$60,35,FALSE)</f>
         <v>434.5639133</v>
       </c>
-      <c r="C11" s="67">
-        <f>HLOOKUP($A11,Realizado!$C$2:$L$54,35,FALSE)</f>
+      <c r="C11" s="60">
+        <f>HLOOKUP($A11,Realizado!$C$2:$L$63,35,FALSE)</f>
         <v>378.0511174</v>
       </c>
-      <c r="D11" s="67">
+      <c r="D11" s="60">
         <f t="shared" ref="D11:E11" si="12">D10+B11</f>
         <v>2773.203046</v>
       </c>
-      <c r="E11" s="67">
+      <c r="E11" s="60">
         <f t="shared" si="12"/>
         <v>2412.562291</v>
       </c>
-      <c r="F11" s="67">
+      <c r="F11" s="60">
         <f t="shared" si="3"/>
         <v>-360.6407549</v>
       </c>
-      <c r="G11" s="68">
+      <c r="G11" s="61">
         <f t="shared" si="4"/>
         <v>-0.130044843</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="66">
+      <c r="A12" s="59">
         <f t="shared" si="5"/>
         <v>9</v>
       </c>
-      <c r="B12" s="67">
-        <f>HLOOKUP($A12,Orcado!$C$2:$L$48,35,FALSE)</f>
+      <c r="B12" s="60">
+        <f>HLOOKUP($A12,Orcado!$C$2:$L$60,35,FALSE)</f>
         <v>478.0203046</v>
       </c>
-      <c r="C12" s="67">
-        <f>HLOOKUP($A12,Realizado!$C$2:$L$54,35,FALSE)</f>
+      <c r="C12" s="60">
+        <f>HLOOKUP($A12,Realizado!$C$2:$L$63,35,FALSE)</f>
         <v>415.8562291</v>
       </c>
-      <c r="D12" s="67">
+      <c r="D12" s="60">
         <f t="shared" ref="D12:E12" si="13">D11+B12</f>
         <v>3251.223351</v>
       </c>
-      <c r="E12" s="67">
+      <c r="E12" s="60">
         <f t="shared" si="13"/>
         <v>2828.418521</v>
       </c>
-      <c r="F12" s="67">
+      <c r="F12" s="60">
         <f t="shared" si="3"/>
         <v>-422.8048304</v>
       </c>
-      <c r="G12" s="68">
+      <c r="G12" s="61">
         <f t="shared" si="4"/>
         <v>-0.130044843</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="69" t="s">
-        <v>67</v>
-      </c>
-      <c r="B13" s="67">
+      <c r="A13" s="62" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="60">
         <f t="shared" ref="B13:C13" si="14">SUM(B3:B12)</f>
         <v>3251.223351</v>
       </c>
-      <c r="C13" s="67">
+      <c r="C13" s="60">
         <f t="shared" si="14"/>
         <v>2828.418521</v>
       </c>
@@ -35605,68 +35990,68 @@
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="38" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" s="38" t="s">
+      <c r="A1" s="30" t="s">
         <v>70</v>
       </c>
+      <c r="B1" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="30" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="C2" s="38" t="s">
-        <v>71</v>
+      <c r="C2" s="30" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="53">
+      <c r="A3" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="C3" s="50">
         <v>0.06</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="B4" s="38" t="s">
-        <v>74</v>
+      <c r="B4" s="30" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
-      <c r="B5" s="38" t="s">
-        <v>75</v>
+      <c r="B5" s="30" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
-      <c r="B6" s="38" t="s">
-        <v>76</v>
+      <c r="B6" s="30" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
-      <c r="B7" s="38" t="s">
-        <v>77</v>
+      <c r="B7" s="30" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
-      <c r="B8" s="38" t="s">
-        <v>78</v>
+      <c r="B8" s="30" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
-      <c r="B9" s="38" t="s">
-        <v>79</v>
+      <c r="B9" s="30" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
-      <c r="B10" s="38" t="s">
-        <v>80</v>
+      <c r="B10" s="30" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1"/>
